--- a/背诵表格.xlsx
+++ b/背诵表格.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4572" yWindow="468" windowWidth="27408" windowHeight="14340" tabRatio="789" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="4575" yWindow="465" windowWidth="27405" windowHeight="14340" tabRatio="789" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="燃烧基础" sheetId="1" r:id="rId1"/>
@@ -17539,27 +17539,36 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -17575,42 +17584,81 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -17626,53 +17674,41 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -17713,51 +17749,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -17773,51 +17791,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -17836,6 +17836,69 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -17845,68 +17908,8 @@
     <xf numFmtId="0" fontId="53" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -17914,12 +17917,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="77" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -17938,22 +17944,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -17974,6 +17974,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>787978</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480713</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>136400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="787978" y="16045296"/>
+          <a:ext cx="5866667" cy="3314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18198,7 +18241,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18247,7 +18290,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18516,7 +18559,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18741,7 +18784,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -19059,12 +19102,12 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.90625" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" customWidth="1"/>
+    <col min="1" max="1" width="31.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" s="2" customFormat="1" ht="26.1" customHeight="1">
@@ -19073,7 +19116,7 @@
       </c>
       <c r="B2" s="167"/>
     </row>
-    <row r="4" spans="1:2" ht="16.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>74</v>
       </c>
@@ -19097,7 +19140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="46.8">
+    <row r="7" spans="1:2" ht="47.25">
       <c r="A7" s="3" t="s">
         <v>80</v>
       </c>
@@ -19113,7 +19156,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="31.2">
+    <row r="9" spans="1:2" ht="31.5">
       <c r="A9" s="3" t="s">
         <v>84</v>
       </c>
@@ -19121,7 +19164,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="25.2">
+    <row r="11" spans="1:2" ht="25.5">
       <c r="A11" s="167" t="s">
         <v>97</v>
       </c>
@@ -19135,7 +19178,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>87</v>
       </c>
@@ -19173,7 +19216,7 @@
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="25.2">
+    <row r="19" spans="1:4" ht="25.5">
       <c r="A19" s="168" t="s">
         <v>117</v>
       </c>
@@ -19181,7 +19224,7 @@
       <c r="C19" s="168"/>
       <c r="D19" s="168"/>
     </row>
-    <row r="20" spans="1:4" ht="16.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
         <v>111</v>
@@ -19249,13 +19292,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="25.2">
+    <row r="26" spans="1:4" ht="25.5">
       <c r="A26" s="167" t="s">
         <v>122</v>
       </c>
       <c r="B26" s="167"/>
     </row>
-    <row r="27" spans="1:4" ht="21.9" customHeight="1">
+    <row r="27" spans="1:4" ht="21.95" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>118</v>
       </c>
@@ -19263,7 +19306,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="21.9" customHeight="1">
+    <row r="28" spans="1:4" ht="21.95" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>119</v>
       </c>
@@ -19271,7 +19314,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="25.2">
+    <row r="32" spans="1:4" ht="25.5">
       <c r="A32" s="167" t="s">
         <v>123</v>
       </c>
@@ -19301,7 +19344,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="25.2">
+    <row r="39" spans="1:2" ht="25.5">
       <c r="A39" s="167" t="s">
         <v>130</v>
       </c>
@@ -19323,7 +19366,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="31.2">
+    <row r="42" spans="1:2" ht="31.5">
       <c r="A42" s="3" t="s">
         <v>134</v>
       </c>
@@ -19361,11 +19404,11 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" style="36"/>
-    <col min="2" max="2" width="24.7265625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="39.36328125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="24.75" style="36" customWidth="1"/>
+    <col min="3" max="3" width="39.375" style="36" customWidth="1"/>
     <col min="4" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
@@ -19390,7 +19433,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" s="111" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B3" s="251" t="s">
+      <c r="B3" s="243" t="s">
         <v>655</v>
       </c>
       <c r="C3" s="121" t="s">
@@ -19420,7 +19463,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B5" s="252"/>
+      <c r="B5" s="244"/>
       <c r="C5" s="88" t="s">
         <v>665</v>
       </c>
@@ -19446,7 +19489,7 @@
       <c r="G6" s="115"/>
     </row>
     <row r="7" spans="2:11" ht="16.5" customHeight="1">
-      <c r="B7" s="251" t="s">
+      <c r="B7" s="243" t="s">
         <v>657</v>
       </c>
       <c r="C7" s="88" t="s">
@@ -19487,7 +19530,7 @@
       <c r="G9" s="115"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B10" s="252"/>
+      <c r="B10" s="244"/>
       <c r="C10" s="88" t="s">
         <v>695</v>
       </c>
@@ -19499,7 +19542,7 @@
       <c r="G10" s="115"/>
     </row>
     <row r="11" spans="2:11" ht="19.5" customHeight="1">
-      <c r="B11" s="251" t="s">
+      <c r="B11" s="243" t="s">
         <v>691</v>
       </c>
       <c r="C11" s="88" t="s">
@@ -19533,7 +19576,7 @@
       <c r="G13" s="115"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="252"/>
+      <c r="B14" s="244"/>
       <c r="C14" s="88" t="s">
         <v>662</v>
       </c>
@@ -19543,7 +19586,7 @@
       <c r="G14" s="115"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="251" t="s">
+      <c r="B15" s="243" t="s">
         <v>658</v>
       </c>
       <c r="C15" s="88" t="s">
@@ -19568,8 +19611,8 @@
       <c r="F16" s="115"/>
       <c r="G16" s="115"/>
     </row>
-    <row r="17" spans="2:7" ht="46.8">
-      <c r="B17" s="252"/>
+    <row r="17" spans="2:7" ht="47.25">
+      <c r="B17" s="244"/>
       <c r="C17" s="88" t="s">
         <v>692</v>
       </c>
@@ -19581,7 +19624,7 @@
       <c r="G17" s="115"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="257" t="s">
+      <c r="B18" s="256" t="s">
         <v>659</v>
       </c>
       <c r="C18" s="88" t="s">
@@ -19595,7 +19638,7 @@
       <c r="G18" s="115"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="257"/>
+      <c r="B19" s="256"/>
       <c r="C19" s="115" t="s">
         <v>693</v>
       </c>
@@ -19607,7 +19650,7 @@
       <c r="G19" s="115"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="257"/>
+      <c r="B20" s="256"/>
       <c r="C20" s="115" t="s">
         <v>667</v>
       </c>
@@ -19641,26 +19684,26 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="31.90625" customWidth="1"/>
-    <col min="5" max="5" width="35.7265625" customWidth="1"/>
-    <col min="7" max="7" width="18.6328125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="17.36328125" customWidth="1"/>
-    <col min="9" max="9" width="19.90625" customWidth="1"/>
-    <col min="10" max="14" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="35.75" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="14" width="15.125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="189" t="s">
         <v>471</v>
       </c>
-      <c r="B2" s="293"/>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="187" t="s">
@@ -19731,7 +19774,7 @@
       <c r="B7" s="91" t="s">
         <v>467</v>
       </c>
-      <c r="C7" s="257" t="s">
+      <c r="C7" s="256" t="s">
         <v>463</v>
       </c>
       <c r="D7" s="93" t="s">
@@ -19746,7 +19789,7 @@
       <c r="B8" s="91" t="s">
         <v>468</v>
       </c>
-      <c r="C8" s="257"/>
+      <c r="C8" s="256"/>
       <c r="D8" s="187" t="s">
         <v>466</v>
       </c>
@@ -19761,37 +19804,37 @@
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:14" ht="39" customHeight="1">
-      <c r="A10" s="279" t="s">
+      <c r="A10" s="275" t="s">
         <v>486</v>
       </c>
-      <c r="B10" s="279"/>
-      <c r="C10" s="279"/>
-      <c r="D10" s="279"/>
-      <c r="E10" s="279"/>
-      <c r="F10" s="280" t="s">
+      <c r="B10" s="275"/>
+      <c r="C10" s="275"/>
+      <c r="D10" s="275"/>
+      <c r="E10" s="275"/>
+      <c r="F10" s="276" t="s">
         <v>671</v>
       </c>
-      <c r="G10" s="281"/>
-      <c r="H10" s="281"/>
-      <c r="I10" s="281"/>
-      <c r="J10" s="270" t="s">
+      <c r="G10" s="277"/>
+      <c r="H10" s="277"/>
+      <c r="I10" s="277"/>
+      <c r="J10" s="291" t="s">
         <v>673</v>
       </c>
-      <c r="K10" s="271"/>
-      <c r="L10" s="271"/>
-      <c r="M10" s="271"/>
-      <c r="N10" s="272"/>
+      <c r="K10" s="292"/>
+      <c r="L10" s="292"/>
+      <c r="M10" s="292"/>
+      <c r="N10" s="293"/>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="76" t="s">
         <v>472</v>
       </c>
-      <c r="C11" s="276" t="s">
+      <c r="C11" s="288" t="s">
         <v>473</v>
       </c>
-      <c r="D11" s="277"/>
-      <c r="E11" s="278"/>
+      <c r="D11" s="289"/>
+      <c r="E11" s="290"/>
       <c r="F11" s="58" t="s">
         <v>482</v>
       </c>
@@ -19825,21 +19868,21 @@
         <v>474</v>
       </c>
       <c r="B12" s="58"/>
-      <c r="C12" s="283" t="s">
+      <c r="C12" s="278" t="s">
         <v>481</v>
       </c>
-      <c r="D12" s="284"/>
-      <c r="E12" s="284"/>
+      <c r="D12" s="279"/>
+      <c r="E12" s="279"/>
       <c r="F12" s="187" t="s">
         <v>485</v>
       </c>
       <c r="G12" s="133">
         <v>4</v>
       </c>
-      <c r="H12" s="234">
+      <c r="H12" s="221">
         <v>160</v>
       </c>
-      <c r="I12" s="291" t="s">
+      <c r="I12" s="273" t="s">
         <v>672</v>
       </c>
       <c r="J12" s="91">
@@ -19859,23 +19902,23 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="84" customHeight="1">
-      <c r="A13" s="273" t="s">
+      <c r="A13" s="285" t="s">
         <v>475</v>
       </c>
       <c r="B13" s="58" t="s">
         <v>476</v>
       </c>
-      <c r="C13" s="285" t="s">
+      <c r="C13" s="280" t="s">
         <v>670</v>
       </c>
-      <c r="D13" s="284"/>
-      <c r="E13" s="284"/>
+      <c r="D13" s="279"/>
+      <c r="E13" s="279"/>
       <c r="F13" s="187"/>
       <c r="G13" s="133">
         <v>6</v>
       </c>
       <c r="H13" s="265"/>
-      <c r="I13" s="291"/>
+      <c r="I13" s="273"/>
       <c r="J13" s="91">
         <v>6</v>
       </c>
@@ -19893,19 +19936,19 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="99" customHeight="1">
-      <c r="A14" s="274"/>
+      <c r="A14" s="286"/>
       <c r="B14" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="C14" s="284"/>
-      <c r="D14" s="284"/>
-      <c r="E14" s="284"/>
+      <c r="C14" s="279"/>
+      <c r="D14" s="279"/>
+      <c r="E14" s="279"/>
       <c r="F14" s="187"/>
       <c r="G14" s="133">
         <v>8</v>
       </c>
-      <c r="H14" s="235"/>
-      <c r="I14" s="291"/>
+      <c r="H14" s="222"/>
+      <c r="I14" s="273"/>
       <c r="J14" s="91">
         <v>8</v>
       </c>
@@ -19923,113 +19966,113 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="51.75" customHeight="1">
-      <c r="A15" s="273" t="s">
+      <c r="A15" s="285" t="s">
         <v>478</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>476</v>
       </c>
-      <c r="C15" s="286"/>
-      <c r="D15" s="287"/>
-      <c r="E15" s="288"/>
+      <c r="C15" s="281"/>
+      <c r="D15" s="282"/>
+      <c r="E15" s="283"/>
       <c r="F15" s="187"/>
       <c r="G15" s="133">
         <v>12</v>
       </c>
-      <c r="H15" s="234">
+      <c r="H15" s="221">
         <v>260</v>
       </c>
-      <c r="I15" s="291"/>
-      <c r="J15" s="234">
+      <c r="I15" s="273"/>
+      <c r="J15" s="221">
         <v>12</v>
       </c>
-      <c r="K15" s="234">
+      <c r="K15" s="221">
         <v>3</v>
       </c>
-      <c r="L15" s="234">
+      <c r="L15" s="221">
         <v>3.6</v>
       </c>
-      <c r="M15" s="234">
+      <c r="M15" s="221">
         <v>9</v>
       </c>
-      <c r="N15" s="234">
+      <c r="N15" s="221">
         <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="129.75" customHeight="1">
-      <c r="A16" s="274"/>
+      <c r="A16" s="286"/>
       <c r="B16" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="C16" s="289" t="s">
+      <c r="C16" s="284" t="s">
         <v>679</v>
       </c>
-      <c r="D16" s="287"/>
-      <c r="E16" s="288"/>
+      <c r="D16" s="282"/>
+      <c r="E16" s="283"/>
       <c r="F16" s="187"/>
       <c r="G16" s="133">
         <v>16</v>
       </c>
-      <c r="H16" s="235"/>
-      <c r="I16" s="291"/>
-      <c r="J16" s="235"/>
-      <c r="K16" s="235"/>
-      <c r="L16" s="235"/>
-      <c r="M16" s="235"/>
-      <c r="N16" s="235"/>
+      <c r="H16" s="222"/>
+      <c r="I16" s="273"/>
+      <c r="J16" s="222"/>
+      <c r="K16" s="222"/>
+      <c r="L16" s="222"/>
+      <c r="M16" s="222"/>
+      <c r="N16" s="222"/>
     </row>
     <row r="17" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A17" s="273" t="s">
+      <c r="A17" s="285" t="s">
         <v>479</v>
       </c>
       <c r="B17" s="58" t="s">
         <v>476</v>
       </c>
-      <c r="C17" s="286"/>
-      <c r="D17" s="287"/>
-      <c r="E17" s="288"/>
+      <c r="C17" s="281"/>
+      <c r="D17" s="282"/>
+      <c r="E17" s="283"/>
       <c r="F17" s="77"/>
     </row>
     <row r="18" spans="1:11" ht="87" customHeight="1">
-      <c r="A18" s="275"/>
+      <c r="A18" s="287"/>
       <c r="B18" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="C18" s="286"/>
-      <c r="D18" s="287"/>
-      <c r="E18" s="288"/>
+      <c r="C18" s="281"/>
+      <c r="D18" s="282"/>
+      <c r="E18" s="283"/>
       <c r="F18" s="77"/>
     </row>
     <row r="19" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A19" s="274"/>
+      <c r="A19" s="286"/>
       <c r="B19" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="C19" s="286"/>
-      <c r="D19" s="287"/>
-      <c r="E19" s="288"/>
+      <c r="C19" s="281"/>
+      <c r="D19" s="282"/>
+      <c r="E19" s="283"/>
       <c r="F19" s="77"/>
     </row>
     <row r="20" spans="1:11">
       <c r="B20" s="38"/>
-      <c r="D20" s="282"/>
-      <c r="E20" s="282"/>
+      <c r="D20" s="271"/>
+      <c r="E20" s="271"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="D21" s="282"/>
-      <c r="E21" s="282"/>
+      <c r="D21" s="271"/>
+      <c r="E21" s="271"/>
     </row>
     <row r="22" spans="1:11" s="148" customFormat="1" ht="30" customHeight="1">
-      <c r="D22" s="290"/>
-      <c r="E22" s="290"/>
-      <c r="F22" s="292" t="s">
+      <c r="D22" s="272"/>
+      <c r="E22" s="272"/>
+      <c r="F22" s="274" t="s">
         <v>775</v>
       </c>
-      <c r="G22" s="292"/>
-      <c r="H22" s="292"/>
-      <c r="I22" s="292"/>
-      <c r="J22" s="292"/>
-      <c r="K22" s="292"/>
+      <c r="G22" s="274"/>
+      <c r="H22" s="274"/>
+      <c r="I22" s="274"/>
+      <c r="J22" s="274"/>
+      <c r="K22" s="274"/>
     </row>
     <row r="23" spans="1:11" s="132" customFormat="1" ht="24" customHeight="1">
       <c r="D23" s="134"/>
@@ -20050,12 +20093,12 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="23.25" customHeight="1">
-      <c r="D24" s="282"/>
-      <c r="E24" s="282"/>
+      <c r="D24" s="271"/>
+      <c r="E24" s="271"/>
       <c r="F24" s="187" t="s">
         <v>776</v>
       </c>
-      <c r="G24" s="251" t="s">
+      <c r="G24" s="243" t="s">
         <v>777</v>
       </c>
       <c r="H24" s="147" t="s">
@@ -20064,10 +20107,10 @@
       <c r="I24" s="131">
         <v>12</v>
       </c>
-      <c r="J24" s="234">
+      <c r="J24" s="221">
         <v>160</v>
       </c>
-      <c r="K24" s="234" t="s">
+      <c r="K24" s="221" t="s">
         <v>785</v>
       </c>
     </row>
@@ -20075,7 +20118,7 @@
       <c r="D25" s="134"/>
       <c r="E25" s="134"/>
       <c r="F25" s="187"/>
-      <c r="G25" s="252"/>
+      <c r="G25" s="244"/>
       <c r="H25" s="147" t="s">
         <v>784</v>
       </c>
@@ -20086,10 +20129,10 @@
       <c r="K25" s="265"/>
     </row>
     <row r="26" spans="1:11" ht="21.75" customHeight="1">
-      <c r="D26" s="282"/>
-      <c r="E26" s="282"/>
+      <c r="D26" s="271"/>
+      <c r="E26" s="271"/>
       <c r="F26" s="187"/>
-      <c r="G26" s="251" t="s">
+      <c r="G26" s="243" t="s">
         <v>778</v>
       </c>
       <c r="H26" s="147" t="s">
@@ -20105,7 +20148,7 @@
       <c r="D27" s="134"/>
       <c r="E27" s="134"/>
       <c r="F27" s="187"/>
-      <c r="G27" s="252"/>
+      <c r="G27" s="244"/>
       <c r="H27" s="147" t="s">
         <v>784</v>
       </c>
@@ -20115,9 +20158,9 @@
       <c r="J27" s="265"/>
       <c r="K27" s="265"/>
     </row>
-    <row r="28" spans="1:11" ht="31.2">
-      <c r="D28" s="282"/>
-      <c r="E28" s="282"/>
+    <row r="28" spans="1:11" ht="31.5">
+      <c r="D28" s="271"/>
+      <c r="E28" s="271"/>
       <c r="F28" s="187" t="s">
         <v>779</v>
       </c>
@@ -20133,9 +20176,9 @@
       <c r="J28" s="265"/>
       <c r="K28" s="265"/>
     </row>
-    <row r="29" spans="1:11" ht="31.2">
-      <c r="D29" s="282"/>
-      <c r="E29" s="282"/>
+    <row r="29" spans="1:11" ht="31.5">
+      <c r="D29" s="271"/>
+      <c r="E29" s="271"/>
       <c r="F29" s="187"/>
       <c r="G29" s="133" t="s">
         <v>781</v>
@@ -20144,20 +20187,20 @@
       <c r="I29" s="131">
         <v>20</v>
       </c>
-      <c r="J29" s="235"/>
-      <c r="K29" s="235"/>
+      <c r="J29" s="222"/>
+      <c r="K29" s="222"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="D30" s="282"/>
-      <c r="E30" s="282"/>
+      <c r="D30" s="271"/>
+      <c r="E30" s="271"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="D31" s="282"/>
-      <c r="E31" s="282"/>
+      <c r="D31" s="271"/>
+      <c r="E31" s="271"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="D32" s="282"/>
-      <c r="E32" s="282"/>
+      <c r="D32" s="271"/>
+      <c r="E32" s="271"/>
     </row>
     <row r="54" spans="10:10">
       <c r="J54">
@@ -20167,27 +20210,17 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="J24:J29"/>
-    <mergeCell ref="K24:K29"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F12:F16"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="D32:E32"/>
@@ -20204,17 +20237,27 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="J24:J29"/>
+    <mergeCell ref="K24:K29"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20231,21 +20274,21 @@
       <selection activeCell="A10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.25" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="294" t="s">
+      <c r="A2" s="295" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="295"/>
+      <c r="B2" s="296"/>
       <c r="C2" s="73" t="s">
         <v>493</v>
       </c>
@@ -20260,7 +20303,7 @@
       <c r="B3" s="73" t="s">
         <v>489</v>
       </c>
-      <c r="C3" s="257" t="s">
+      <c r="C3" s="256" t="s">
         <v>495</v>
       </c>
       <c r="D3" s="187" t="s">
@@ -20272,7 +20315,7 @@
       <c r="B4" s="73" t="s">
         <v>490</v>
       </c>
-      <c r="C4" s="257"/>
+      <c r="C4" s="256"/>
       <c r="D4" s="187"/>
     </row>
     <row r="5" spans="1:5">
@@ -20280,7 +20323,7 @@
       <c r="B5" s="73" t="s">
         <v>491</v>
       </c>
-      <c r="C5" s="257"/>
+      <c r="C5" s="256"/>
       <c r="D5" s="187"/>
     </row>
     <row r="6" spans="1:5">
@@ -20288,10 +20331,10 @@
       <c r="B6" s="73" t="s">
         <v>492</v>
       </c>
-      <c r="C6" s="257"/>
+      <c r="C6" s="256"/>
       <c r="D6" s="187"/>
     </row>
-    <row r="7" spans="1:5" ht="46.8">
+    <row r="7" spans="1:5" ht="47.25">
       <c r="A7" s="187" t="s">
         <v>497</v>
       </c>
@@ -20303,7 +20346,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="31.2">
+    <row r="8" spans="1:5" ht="31.5">
       <c r="A8" s="187" t="s">
         <v>501</v>
       </c>
@@ -20315,14 +20358,14 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.399999999999999">
-      <c r="A10" s="292" t="s">
+    <row r="10" spans="1:5" ht="20.25">
+      <c r="A10" s="274" t="s">
         <v>504</v>
       </c>
-      <c r="B10" s="292"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
+      <c r="B10" s="274"/>
+      <c r="C10" s="274"/>
+      <c r="D10" s="274"/>
+      <c r="E10" s="274"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1">
       <c r="A11" s="187" t="s">
@@ -20367,7 +20410,7 @@
       <c r="D13" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="E13" s="247" t="s">
+      <c r="E13" s="253" t="s">
         <v>513</v>
       </c>
     </row>
@@ -20380,7 +20423,7 @@
       <c r="D14" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E14" s="247"/>
+      <c r="E14" s="253"/>
     </row>
     <row r="15" spans="1:5" ht="77.25" customHeight="1">
       <c r="A15" s="187"/>
@@ -20393,7 +20436,7 @@
       <c r="D15" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="E15" s="257" t="s">
+      <c r="E15" s="256" t="s">
         <v>517</v>
       </c>
     </row>
@@ -20406,11 +20449,11 @@
       <c r="D16" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E16" s="257"/>
+      <c r="E16" s="256"/>
     </row>
     <row r="17" spans="1:5" ht="77.25" customHeight="1">
       <c r="A17" s="187"/>
-      <c r="B17" s="257" t="s">
+      <c r="B17" s="256" t="s">
         <v>519</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -20419,22 +20462,22 @@
       <c r="D17" s="22" t="s">
         <v>521</v>
       </c>
-      <c r="E17" s="257" t="s">
+      <c r="E17" s="256" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="46.8">
+    <row r="18" spans="1:5" ht="47.25">
       <c r="A18" s="187"/>
-      <c r="B18" s="257"/>
+      <c r="B18" s="256"/>
       <c r="C18" s="22" t="s">
         <v>518</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E18" s="257"/>
-    </row>
-    <row r="19" spans="1:5" ht="31.2">
+      <c r="E18" s="256"/>
+    </row>
+    <row r="19" spans="1:5" ht="31.5">
       <c r="A19" s="187"/>
       <c r="B19" s="187" t="s">
         <v>522</v>
@@ -20445,9 +20488,9 @@
       <c r="D19" s="22" t="s">
         <v>524</v>
       </c>
-      <c r="E19" s="257"/>
-    </row>
-    <row r="20" spans="1:5" ht="46.8">
+      <c r="E19" s="256"/>
+    </row>
+    <row r="20" spans="1:5" ht="47.25">
       <c r="A20" s="187"/>
       <c r="B20" s="187"/>
       <c r="C20" s="22" t="s">
@@ -20456,13 +20499,13 @@
       <c r="D20" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E20" s="257"/>
-    </row>
-    <row r="21" spans="1:5" ht="46.8">
-      <c r="A21" s="257" t="s">
+      <c r="E20" s="256"/>
+    </row>
+    <row r="21" spans="1:5" ht="47.25">
+      <c r="A21" s="256" t="s">
         <v>526</v>
       </c>
-      <c r="B21" s="257"/>
+      <c r="B21" s="256"/>
       <c r="C21" s="22" t="s">
         <v>527</v>
       </c>
@@ -20474,10 +20517,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="84.75" customHeight="1">
-      <c r="A22" s="257" t="s">
+      <c r="A22" s="256" t="s">
         <v>529</v>
       </c>
-      <c r="B22" s="257"/>
+      <c r="B22" s="256"/>
       <c r="C22" s="22" t="s">
         <v>530</v>
       </c>
@@ -20488,9 +20531,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="234">
-      <c r="A23" s="257"/>
-      <c r="B23" s="257"/>
+    <row r="23" spans="1:5" ht="236.25">
+      <c r="A23" s="256"/>
+      <c r="B23" s="256"/>
       <c r="C23" s="22" t="s">
         <v>533</v>
       </c>
@@ -20502,60 +20545,60 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="110.25" customHeight="1">
-      <c r="A24" s="296" t="s">
+      <c r="A24" s="294" t="s">
         <v>536</v>
       </c>
-      <c r="B24" s="296"/>
+      <c r="B24" s="294"/>
       <c r="C24" s="22" t="s">
         <v>537</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="E24" s="247" t="s">
+      <c r="E24" s="253" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="62.25" customHeight="1">
-      <c r="A25" s="296"/>
-      <c r="B25" s="296"/>
+      <c r="A25" s="294"/>
+      <c r="B25" s="294"/>
       <c r="C25" s="83" t="s">
         <v>538</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="E25" s="247"/>
-    </row>
-    <row r="26" spans="1:5" ht="62.4">
-      <c r="A26" s="296" t="s">
+      <c r="E25" s="253"/>
+    </row>
+    <row r="26" spans="1:5" ht="78.75">
+      <c r="A26" s="294" t="s">
         <v>501</v>
       </c>
-      <c r="B26" s="296"/>
+      <c r="B26" s="294"/>
       <c r="C26" s="22" t="s">
         <v>541</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="E26" s="247"/>
-    </row>
-    <row r="27" spans="1:5" ht="46.8">
-      <c r="A27" s="296"/>
-      <c r="B27" s="296"/>
+      <c r="E26" s="253"/>
+    </row>
+    <row r="27" spans="1:5" ht="78.75">
+      <c r="A27" s="294"/>
+      <c r="B27" s="294"/>
       <c r="C27" s="22" t="s">
         <v>542</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="E27" s="247"/>
+      <c r="E27" s="253"/>
     </row>
     <row r="28" spans="1:5" ht="65.25" customHeight="1">
-      <c r="A28" s="257" t="s">
+      <c r="A28" s="256" t="s">
         <v>546</v>
       </c>
-      <c r="B28" s="257"/>
+      <c r="B28" s="256"/>
       <c r="C28" s="22" t="s">
         <v>549</v>
       </c>
@@ -20566,7 +20609,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="46.8">
+    <row r="29" spans="1:5" ht="47.25">
       <c r="A29" s="187" t="s">
         <v>550</v>
       </c>
@@ -20580,10 +20623,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="61.5" customHeight="1">
-      <c r="A30" s="257" t="s">
+      <c r="A30" s="256" t="s">
         <v>553</v>
       </c>
-      <c r="B30" s="257"/>
+      <c r="B30" s="256"/>
       <c r="C30" s="74" t="s">
         <v>554</v>
       </c>
@@ -20595,10 +20638,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="114" customHeight="1">
-      <c r="A31" s="257" t="s">
+      <c r="A31" s="256" t="s">
         <v>557</v>
       </c>
-      <c r="B31" s="257"/>
+      <c r="B31" s="256"/>
       <c r="C31" s="22" t="s">
         <v>554</v>
       </c>
@@ -20609,6 +20652,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
@@ -20623,17 +20677,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B23"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20650,17 +20693,17 @@
       <selection pane="bottomLeft" activeCell="C8" sqref="C8:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="9" style="119"/>
-    <col min="3" max="3" width="26.7265625" style="119" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" style="119" customWidth="1"/>
-    <col min="5" max="5" width="61.7265625" style="119" customWidth="1"/>
-    <col min="6" max="6" width="36.26953125" customWidth="1"/>
-    <col min="7" max="7" width="28.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="119" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="119" customWidth="1"/>
+    <col min="5" max="5" width="61.75" style="119" customWidth="1"/>
+    <col min="6" max="6" width="36.25" customWidth="1"/>
+    <col min="7" max="7" width="28.125" customWidth="1"/>
     <col min="8" max="8" width="48" customWidth="1"/>
-    <col min="9" max="9" width="75.7265625" customWidth="1"/>
-    <col min="10" max="10" width="44.08984375" customWidth="1"/>
+    <col min="9" max="9" width="75.75" customWidth="1"/>
+    <col min="10" max="10" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="30.75" customHeight="1">
@@ -20697,7 +20740,7 @@
       <c r="C2" s="144" t="s">
         <v>704</v>
       </c>
-      <c r="D2" s="257" t="s">
+      <c r="D2" s="256" t="s">
         <v>714</v>
       </c>
       <c r="E2" s="158" t="s">
@@ -20861,7 +20904,7 @@
       </c>
       <c r="J8" s="166"/>
     </row>
-    <row r="9" spans="1:10" ht="61.2">
+    <row r="9" spans="1:10" ht="67.5">
       <c r="A9" s="187"/>
       <c r="B9" s="117" t="s">
         <v>710</v>
@@ -20899,25 +20942,25 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="61.6328125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="61.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="20.25" customHeight="1">
-      <c r="B4" s="305" t="s">
+      <c r="B4" s="299" t="s">
         <v>715</v>
       </c>
-      <c r="C4" s="304" t="s">
+      <c r="C4" s="298" t="s">
         <v>716</v>
       </c>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="298"/>
     </row>
     <row r="5" spans="2:6" ht="20.25" customHeight="1">
-      <c r="B5" s="305"/>
+      <c r="B5" s="299"/>
       <c r="C5" s="130" t="s">
         <v>717</v>
       </c>
@@ -20965,7 +21008,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="2:6" s="125" customFormat="1" ht="31.2">
+    <row r="8" spans="2:6" s="125" customFormat="1" ht="31.5">
       <c r="B8" s="126" t="s">
         <v>727</v>
       </c>
@@ -20984,92 +21027,92 @@
       <c r="B9" s="126" t="s">
         <v>721</v>
       </c>
-      <c r="C9" s="189" t="s">
+      <c r="C9" s="207" t="s">
         <v>269</v>
       </c>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="126" t="s">
         <v>722</v>
       </c>
-      <c r="C10" s="189" t="s">
+      <c r="C10" s="207" t="s">
         <v>728</v>
       </c>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189" t="s">
+      <c r="D10" s="207"/>
+      <c r="E10" s="207" t="s">
         <v>729</v>
       </c>
-      <c r="F10" s="189"/>
+      <c r="F10" s="207"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="126" t="s">
         <v>723</v>
       </c>
-      <c r="C11" s="189" t="s">
+      <c r="C11" s="207" t="s">
         <v>730</v>
       </c>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="207"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="126" t="s">
         <v>724</v>
       </c>
-      <c r="C12" s="189" t="s">
+      <c r="C12" s="207" t="s">
         <v>731</v>
       </c>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="207"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="251" t="s">
+      <c r="B13" s="243" t="s">
         <v>732</v>
       </c>
-      <c r="C13" s="189" t="s">
+      <c r="C13" s="207" t="s">
         <v>734</v>
       </c>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="252"/>
-      <c r="C14" s="189" t="s">
+      <c r="B14" s="244"/>
+      <c r="C14" s="207" t="s">
         <v>735</v>
       </c>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="126" t="s">
         <v>733</v>
       </c>
-      <c r="C15" s="189" t="s">
+      <c r="C15" s="207" t="s">
         <v>736</v>
       </c>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="305" t="s">
+      <c r="B19" s="299" t="s">
         <v>715</v>
       </c>
-      <c r="C19" s="304" t="s">
+      <c r="C19" s="298" t="s">
         <v>716</v>
       </c>
-      <c r="D19" s="304"/>
-      <c r="E19" s="304"/>
-      <c r="F19" s="304"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
+      <c r="F19" s="298"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="305"/>
+      <c r="B20" s="299"/>
       <c r="C20" s="130" t="s">
         <v>717</v>
       </c>
@@ -21138,12 +21181,12 @@
       <c r="B24" s="141" t="s">
         <v>745</v>
       </c>
-      <c r="C24" s="298" t="s">
+      <c r="C24" s="300" t="s">
         <v>746</v>
       </c>
-      <c r="D24" s="299"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="300"/>
+      <c r="D24" s="301"/>
+      <c r="E24" s="301"/>
+      <c r="F24" s="302"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="137" t="s">
@@ -21217,26 +21260,31 @@
       <c r="B29" s="141" t="s">
         <v>739</v>
       </c>
-      <c r="C29" s="298" t="s">
+      <c r="C29" s="300" t="s">
         <v>746</v>
       </c>
-      <c r="D29" s="299"/>
-      <c r="E29" s="299"/>
-      <c r="F29" s="300"/>
+      <c r="D29" s="301"/>
+      <c r="E29" s="301"/>
+      <c r="F29" s="302"/>
     </row>
     <row r="30" spans="2:6" ht="24.75" customHeight="1">
       <c r="B30" s="22" t="s">
         <v>740</v>
       </c>
-      <c r="C30" s="301" t="s">
+      <c r="C30" s="303" t="s">
         <v>748</v>
       </c>
-      <c r="D30" s="302"/>
-      <c r="E30" s="302"/>
-      <c r="F30" s="303"/>
+      <c r="D30" s="304"/>
+      <c r="E30" s="304"/>
+      <c r="F30" s="305"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B13:B14"/>
@@ -21248,11 +21296,6 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21267,38 +21310,38 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="6.90625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="36" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="36" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="36" customWidth="1"/>
     <col min="5" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39.75" customHeight="1">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="307" t="s">
         <v>749</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
       <c r="A2" s="129" t="s">
         <v>750</v>
       </c>
-      <c r="B2" s="257" t="s">
+      <c r="B2" s="256" t="s">
         <v>751</v>
       </c>
-      <c r="C2" s="257"/>
-      <c r="D2" s="257"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
       <c r="E2" s="129">
         <v>1500</v>
       </c>
@@ -21319,22 +21362,22 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="257" t="s">
+      <c r="A3" s="256" t="s">
         <v>767</v>
       </c>
-      <c r="B3" s="257" t="s">
+      <c r="B3" s="256" t="s">
         <v>752</v>
       </c>
-      <c r="C3" s="257" t="s">
+      <c r="C3" s="256" t="s">
         <v>753</v>
       </c>
       <c r="D3" s="129" t="s">
         <v>754</v>
       </c>
-      <c r="E3" s="257">
+      <c r="E3" s="256">
         <v>15</v>
       </c>
-      <c r="F3" s="257"/>
+      <c r="F3" s="256"/>
       <c r="G3" s="129">
         <v>20</v>
       </c>
@@ -21349,16 +21392,16 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="257"/>
-      <c r="B4" s="257"/>
-      <c r="C4" s="257"/>
+      <c r="A4" s="256"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
       <c r="D4" s="129" t="s">
         <v>755</v>
       </c>
-      <c r="E4" s="257">
+      <c r="E4" s="256">
         <v>15</v>
       </c>
-      <c r="F4" s="257"/>
+      <c r="F4" s="256"/>
       <c r="G4" s="129">
         <v>20</v>
       </c>
@@ -21373,60 +21416,60 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="257"/>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
+      <c r="A5" s="256"/>
+      <c r="B5" s="256"/>
+      <c r="C5" s="256"/>
       <c r="D5" s="129" t="s">
         <v>756</v>
       </c>
-      <c r="E5" s="257">
+      <c r="E5" s="256">
         <v>15</v>
       </c>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
+      <c r="F5" s="256"/>
+      <c r="G5" s="256"/>
+      <c r="H5" s="256"/>
+      <c r="I5" s="256"/>
       <c r="J5" s="129">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="257"/>
-      <c r="B6" s="257"/>
-      <c r="C6" s="257" t="s">
+      <c r="A6" s="256"/>
+      <c r="B6" s="256"/>
+      <c r="C6" s="256" t="s">
         <v>757</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>754</v>
       </c>
-      <c r="E6" s="257">
+      <c r="E6" s="256">
         <v>15</v>
       </c>
-      <c r="F6" s="257"/>
-      <c r="G6" s="257">
+      <c r="F6" s="256"/>
+      <c r="G6" s="256">
         <v>25</v>
       </c>
-      <c r="H6" s="257"/>
-      <c r="I6" s="307" t="s">
+      <c r="H6" s="256"/>
+      <c r="I6" s="309" t="s">
         <v>773</v>
       </c>
-      <c r="J6" s="257"/>
+      <c r="J6" s="256"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="257"/>
-      <c r="B7" s="257"/>
-      <c r="C7" s="257"/>
+      <c r="A7" s="256"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="256"/>
       <c r="D7" s="129" t="s">
         <v>755</v>
       </c>
-      <c r="E7" s="257">
+      <c r="E7" s="256">
         <v>15</v>
       </c>
-      <c r="F7" s="257"/>
-      <c r="G7" s="257">
+      <c r="F7" s="256"/>
+      <c r="G7" s="256">
         <v>25</v>
       </c>
-      <c r="H7" s="257"/>
+      <c r="H7" s="256"/>
       <c r="I7" s="129">
         <v>35</v>
       </c>
@@ -21435,25 +21478,25 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="257"/>
-      <c r="B8" s="257"/>
-      <c r="C8" s="257"/>
+      <c r="A8" s="256"/>
+      <c r="B8" s="256"/>
+      <c r="C8" s="256"/>
       <c r="D8" s="129" t="s">
         <v>756</v>
       </c>
-      <c r="E8" s="257">
+      <c r="E8" s="256">
         <v>15</v>
       </c>
-      <c r="F8" s="257"/>
-      <c r="G8" s="257"/>
-      <c r="H8" s="257"/>
-      <c r="I8" s="257"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="256"/>
       <c r="J8" s="129">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="257"/>
+      <c r="A9" s="256"/>
       <c r="B9" s="306" t="s">
         <v>758</v>
       </c>
@@ -21471,7 +21514,7 @@
       <c r="J9" s="306"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="257"/>
+      <c r="A10" s="256"/>
       <c r="B10" s="306"/>
       <c r="C10" s="306" t="s">
         <v>760</v>
@@ -21495,7 +21538,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="257"/>
+      <c r="A11" s="256"/>
       <c r="B11" s="306"/>
       <c r="C11" s="306"/>
       <c r="D11" s="142" t="s">
@@ -21517,7 +21560,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="36" customHeight="1">
-      <c r="A12" s="257"/>
+      <c r="A12" s="256"/>
       <c r="B12" s="306"/>
       <c r="C12" s="306" t="s">
         <v>763</v>
@@ -21539,16 +21582,16 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="257" t="s">
+      <c r="A13" s="256" t="s">
         <v>766</v>
       </c>
-      <c r="B13" s="257" t="s">
+      <c r="B13" s="256" t="s">
         <v>752</v>
       </c>
-      <c r="C13" s="257" t="s">
+      <c r="C13" s="256" t="s">
         <v>764</v>
       </c>
-      <c r="D13" s="257"/>
+      <c r="D13" s="256"/>
       <c r="E13" s="129">
         <v>15</v>
       </c>
@@ -21569,17 +21612,17 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="257"/>
-      <c r="B14" s="257"/>
-      <c r="C14" s="257" t="s">
+      <c r="A14" s="256"/>
+      <c r="B14" s="256"/>
+      <c r="C14" s="256" t="s">
         <v>756</v>
       </c>
-      <c r="D14" s="257"/>
-      <c r="E14" s="257">
+      <c r="D14" s="256"/>
+      <c r="E14" s="256">
         <v>15</v>
       </c>
-      <c r="F14" s="257"/>
-      <c r="G14" s="257"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="256"/>
       <c r="H14" s="129">
         <v>20</v>
       </c>
@@ -21591,7 +21634,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="257"/>
+      <c r="A15" s="256"/>
       <c r="B15" s="306" t="s">
         <v>765</v>
       </c>
@@ -21615,18 +21658,18 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="257" t="s">
+      <c r="A16" s="256" t="s">
         <v>768</v>
       </c>
-      <c r="B16" s="257" t="s">
+      <c r="B16" s="256" t="s">
         <v>756</v>
       </c>
-      <c r="C16" s="257"/>
-      <c r="D16" s="257"/>
-      <c r="E16" s="257">
+      <c r="C16" s="256"/>
+      <c r="D16" s="256"/>
+      <c r="E16" s="256">
         <v>15</v>
       </c>
-      <c r="F16" s="257"/>
+      <c r="F16" s="256"/>
       <c r="G16" s="129">
         <v>20</v>
       </c>
@@ -21641,7 +21684,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A17" s="257"/>
+      <c r="A17" s="256"/>
       <c r="B17" s="306" t="s">
         <v>765</v>
       </c>
@@ -21666,6 +21709,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="E12:G12"/>
@@ -21682,25 +21744,6 @@
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21717,39 +21760,39 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="33.90625" customWidth="1"/>
-    <col min="3" max="3" width="40.36328125" customWidth="1"/>
-    <col min="4" max="4" width="46.36328125" customWidth="1"/>
-    <col min="5" max="5" width="37.90625" customWidth="1"/>
-    <col min="6" max="6" width="34.6328125" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="40.375" customWidth="1"/>
+    <col min="4" max="4" width="46.375" customWidth="1"/>
+    <col min="5" max="5" width="37.875" customWidth="1"/>
+    <col min="6" max="6" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="30" customHeight="1">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="177" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="178" t="s">
+      <c r="C2" s="180"/>
+      <c r="D2" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="178"/>
+      <c r="E2" s="181"/>
       <c r="F2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="39" customHeight="1">
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="173" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -21764,7 +21807,7 @@
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="179"/>
+      <c r="B4" s="182"/>
       <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
@@ -21775,7 +21818,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="173"/>
+      <c r="B5" s="174"/>
       <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
@@ -21786,7 +21829,7 @@
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:6" ht="66" customHeight="1">
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="173" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -21798,12 +21841,12 @@
       <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="174" t="s">
+      <c r="F6" s="175" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="179"/>
+      <c r="B7" s="182"/>
       <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
@@ -21813,10 +21856,10 @@
       <c r="E7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="180"/>
+      <c r="F7" s="183"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="173"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
@@ -21826,10 +21869,10 @@
       <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="175"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="172" t="s">
+      <c r="F8" s="176"/>
+    </row>
+    <row r="9" spans="2:6" ht="28.5">
+      <c r="B9" s="173" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -21841,12 +21884,12 @@
       <c r="E9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="174" t="s">
+      <c r="F9" s="175" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="179"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="12" t="s">
         <v>24</v>
       </c>
@@ -21856,10 +21899,10 @@
       <c r="E10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="180"/>
+      <c r="F10" s="183"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="173"/>
+      <c r="B11" s="174"/>
       <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
@@ -21869,7 +21912,7 @@
       <c r="E11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="175"/>
+      <c r="F11" s="176"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="14" t="s">
@@ -21905,7 +21948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="41.4">
+    <row r="14" spans="2:6" ht="42.75">
       <c r="B14" s="14" t="s">
         <v>34</v>
       </c>
@@ -21922,8 +21965,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="28.8">
-      <c r="B15" s="171" t="s">
+    <row r="15" spans="2:6" ht="28.5">
+      <c r="B15" s="172" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -21937,8 +21980,8 @@
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="171"/>
+    <row r="16" spans="2:6" ht="28.5">
+      <c r="B16" s="172"/>
       <c r="C16" s="12" t="s">
         <v>39</v>
       </c>
@@ -21951,7 +21994,7 @@
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="2:6" ht="69" customHeight="1">
-      <c r="B17" s="171"/>
+      <c r="B17" s="172"/>
       <c r="C17" s="12" t="s">
         <v>40</v>
       </c>
@@ -21964,7 +22007,7 @@
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="2:6" ht="45" customHeight="1">
-      <c r="B18" s="172" t="s">
+      <c r="B18" s="173" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -21976,12 +22019,12 @@
       <c r="E18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="174" t="s">
+      <c r="F18" s="175" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="173"/>
+      <c r="B19" s="174"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
         <v>48</v>
@@ -21989,10 +22032,10 @@
       <c r="E19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="175"/>
+      <c r="F19" s="176"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="172" t="s">
+      <c r="B20" s="173" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -22004,12 +22047,12 @@
       <c r="E20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="174" t="s">
+      <c r="F20" s="175" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="173"/>
+      <c r="B21" s="174"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
         <v>53</v>
@@ -22017,10 +22060,10 @@
       <c r="E21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="175"/>
+      <c r="F21" s="176"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="172" t="s">
+      <c r="B22" s="173" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="12"/>
@@ -22033,7 +22076,7 @@
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="2:6" ht="26.1" customHeight="1">
-      <c r="B23" s="173"/>
+      <c r="B23" s="174"/>
       <c r="C23" s="12" t="s">
         <v>57</v>
       </c>
@@ -22046,7 +22089,7 @@
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="2:6" ht="26.1" customHeight="1">
-      <c r="B24" s="171" t="s">
+      <c r="B24" s="172" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -22061,7 +22104,7 @@
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="171"/>
+      <c r="B25" s="172"/>
       <c r="C25" s="12" t="s">
         <v>63</v>
       </c>
@@ -22074,7 +22117,7 @@
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="171"/>
+      <c r="B26" s="172"/>
       <c r="C26" s="12" t="s">
         <v>66</v>
       </c>
@@ -22086,8 +22129,8 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="2:6" ht="41.4">
-      <c r="B27" s="172" t="s">
+    <row r="27" spans="2:6" ht="42.75">
+      <c r="B27" s="173" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -22099,12 +22142,12 @@
       <c r="E27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="174" t="s">
+      <c r="F27" s="175" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="173"/>
+      <c r="B28" s="174"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
         <v>72</v>
@@ -22112,18 +22155,18 @@
       <c r="E28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="175"/>
+      <c r="F28" s="176"/>
     </row>
     <row r="30" spans="2:6" ht="27" customHeight="1">
-      <c r="B30" s="170" t="s">
+      <c r="B30" s="178" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:6" s="1" customFormat="1" ht="54.9" customHeight="1">
+    <row r="31" spans="2:6" s="1" customFormat="1" ht="54.95" customHeight="1">
       <c r="B31" s="21" t="s">
         <v>143</v>
       </c>
@@ -22134,7 +22177,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="2:6" s="1" customFormat="1" ht="54.9" customHeight="1">
+    <row r="32" spans="2:6" s="1" customFormat="1" ht="54.95" customHeight="1">
       <c r="B32" s="21" t="s">
         <v>144</v>
       </c>
@@ -22146,7 +22189,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" s="16" customFormat="1"/>
-    <row r="36" spans="2:5" s="16" customFormat="1" ht="25.2">
+    <row r="36" spans="2:5" s="16" customFormat="1" ht="25.5">
       <c r="B36" s="167" t="s">
         <v>153</v>
       </c>
@@ -22157,10 +22200,10 @@
     <row r="37" spans="2:5" s="16" customFormat="1"/>
     <row r="38" spans="2:5" s="16" customFormat="1">
       <c r="B38" s="17"/>
-      <c r="C38" s="182" t="s">
+      <c r="C38" s="170" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="183"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="19" t="s">
         <v>157</v>
       </c>
@@ -22175,7 +22218,7 @@
       </c>
       <c r="E39" s="20"/>
     </row>
-    <row r="40" spans="2:5" s="16" customFormat="1" ht="57.9" customHeight="1">
+    <row r="40" spans="2:5" s="16" customFormat="1" ht="57.95" customHeight="1">
       <c r="B40" s="6" t="s">
         <v>158</v>
       </c>
@@ -22189,7 +22232,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="2:5" s="16" customFormat="1" ht="105.9" customHeight="1">
+    <row r="41" spans="2:5" s="16" customFormat="1" ht="105.95" customHeight="1">
       <c r="B41" s="6" t="s">
         <v>159</v>
       </c>
@@ -22204,12 +22247,12 @@
       </c>
     </row>
     <row r="42" spans="2:5" s="16" customFormat="1" ht="26.1" customHeight="1"/>
-    <row r="43" spans="2:5" ht="25.2">
-      <c r="B43" s="181" t="s">
+    <row r="43" spans="2:5" ht="25.5">
+      <c r="B43" s="169" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
     </row>
     <row r="44" spans="2:5" ht="44.1" customHeight="1">
       <c r="B44" s="6" t="s">
@@ -22250,13 +22293,13 @@
       <c r="C48" s="1"/>
     </row>
     <row r="50" spans="2:6" ht="27" customHeight="1">
-      <c r="B50" s="181" t="s">
+      <c r="B50" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="C50" s="181"/>
-      <c r="D50" s="181"/>
-      <c r="E50" s="181"/>
-      <c r="F50" s="181"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
+      <c r="E50" s="169"/>
+      <c r="F50" s="169"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="7" t="s">
@@ -22294,13 +22337,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="F27:F28"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B15:B17"/>
@@ -22316,6 +22352,13 @@
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="F9:F11"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="F27:F28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22330,35 +22373,35 @@
       <selection activeCell="B6" sqref="B6:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="24"/>
-    <col min="2" max="2" width="8.90625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="25"/>
-    <col min="5" max="17" width="7.453125" style="24" customWidth="1"/>
-    <col min="18" max="16384" width="10.90625" style="24"/>
+    <col min="1" max="1" width="10.875" style="24"/>
+    <col min="2" max="2" width="8.875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="24" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="25"/>
+    <col min="5" max="17" width="7.5" style="24" customWidth="1"/>
+    <col min="18" max="16384" width="10.875" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="53.1" customHeight="1">
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="186" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="27"/>
@@ -22511,7 +22554,7 @@
       <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="186" t="s">
+      <c r="B7" s="184" t="s">
         <v>199</v>
       </c>
       <c r="C7" s="185" t="s">
@@ -22559,7 +22602,7 @@
       <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="186"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="185"/>
       <c r="D8" s="29" t="s">
         <v>189</v>
@@ -22603,7 +22646,7 @@
       <c r="Q8" s="33"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="186"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="28" t="s">
         <v>154</v>
       </c>
@@ -22649,10 +22692,10 @@
       <c r="Q9" s="33"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="186" t="s">
+      <c r="B10" s="184" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="186" t="s">
+      <c r="C10" s="184" t="s">
         <v>157</v>
       </c>
       <c r="D10" s="27" t="s">
@@ -22712,8 +22755,8 @@
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="186"/>
-      <c r="C11" s="186"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="184"/>
       <c r="D11" s="27" t="s">
         <v>189</v>
       </c>
@@ -22768,8 +22811,8 @@
       <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="186"/>
-      <c r="C12" s="186"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="184"/>
       <c r="D12" s="27" t="s">
         <v>192</v>
       </c>
@@ -22824,7 +22867,7 @@
       <c r="Q12" s="34"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="186"/>
+      <c r="B13" s="184"/>
       <c r="C13" s="32" t="s">
         <v>154</v>
       </c>
@@ -22882,10 +22925,10 @@
       <c r="Q13" s="34"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="186" t="s">
+      <c r="B14" s="184" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="186" t="s">
+      <c r="C14" s="184" t="s">
         <v>194</v>
       </c>
       <c r="D14" s="27" t="s">
@@ -22906,8 +22949,8 @@
       <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="186"/>
-      <c r="C15" s="186"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="184"/>
       <c r="D15" s="27" t="s">
         <v>189</v>
       </c>
@@ -22926,8 +22969,8 @@
       <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="186"/>
-      <c r="C16" s="186"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="184"/>
       <c r="D16" s="27" t="s">
         <v>192</v>
       </c>
@@ -22946,8 +22989,8 @@
       <c r="Q16" s="33"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="186"/>
-      <c r="C17" s="186" t="s">
+      <c r="B17" s="184"/>
+      <c r="C17" s="184" t="s">
         <v>154</v>
       </c>
       <c r="D17" s="27" t="s">
@@ -22968,8 +23011,8 @@
       <c r="Q17" s="33"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="186"/>
-      <c r="C18" s="186"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="184"/>
       <c r="D18" s="27" t="s">
         <v>197</v>
       </c>
@@ -22989,13 +23032,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C18"/>
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F3:H3"/>
@@ -23004,6 +23040,13 @@
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23014,21 +23057,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="38"/>
-    <col min="2" max="2" width="22.6328125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="47.453125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="38"/>
+    <col min="2" max="2" width="22.625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="47.5" style="36" customWidth="1"/>
     <col min="4" max="4" width="13" style="36" customWidth="1"/>
-    <col min="5" max="5" width="93.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="36" customWidth="1"/>
-    <col min="7" max="10" width="10.90625" style="1"/>
-    <col min="11" max="11" width="13.6328125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.90625" style="1"/>
+    <col min="7" max="10" width="10.875" style="1"/>
+    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="26.1" customHeight="1">
@@ -23082,7 +23125,7 @@
       <c r="N4" s="45"/>
       <c r="O4" s="45"/>
     </row>
-    <row r="5" spans="1:15" ht="81.900000000000006" customHeight="1">
+    <row r="5" spans="1:15" ht="81.95" customHeight="1">
       <c r="A5" s="187"/>
       <c r="B5" s="22" t="s">
         <v>207</v>
@@ -23187,7 +23230,7 @@
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
     </row>
-    <row r="10" spans="1:15" ht="78.900000000000006" customHeight="1">
+    <row r="10" spans="1:15" ht="78.95" customHeight="1">
       <c r="A10" s="187" t="s">
         <v>217</v>
       </c>
@@ -23307,7 +23350,7 @@
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6" ht="108.9" customHeight="1">
+    <row r="17" spans="1:6" ht="108.95" customHeight="1">
       <c r="A17" s="187"/>
       <c r="B17" s="22" t="s">
         <v>235</v>
@@ -23373,6 +23416,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23380,31 +23424,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B16" workbookViewId="0">
       <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="5" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="5" width="12" customWidth="1"/>
-    <col min="8" max="8" width="42.08984375" customWidth="1"/>
-    <col min="10" max="10" width="3.453125" customWidth="1"/>
-    <col min="11" max="11" width="18.36328125" customWidth="1"/>
-    <col min="16" max="16" width="34.08984375" customWidth="1"/>
+    <col min="8" max="8" width="42.125" customWidth="1"/>
+    <col min="10" max="10" width="3.5" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="16" max="16" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" s="52" customFormat="1" ht="38.1" customHeight="1">
-      <c r="B2" s="212" t="s">
+      <c r="B2" s="189" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-    </row>
-    <row r="3" spans="2:16" ht="42">
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+    </row>
+    <row r="3" spans="2:16" ht="43.5">
       <c r="B3" s="50" t="s">
         <v>265</v>
       </c>
@@ -23432,7 +23476,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="93.6">
+    <row r="5" spans="2:16" ht="110.25">
       <c r="B5" s="42" t="s">
         <v>270</v>
       </c>
@@ -23446,7 +23490,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="33.9" customHeight="1">
+    <row r="6" spans="2:16" ht="33.950000000000003" customHeight="1">
       <c r="B6" s="42" t="s">
         <v>271</v>
       </c>
@@ -23470,55 +23514,55 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="13" spans="2:16" ht="27.9" customHeight="1">
-      <c r="B13" s="208" t="s">
+    <row r="13" spans="2:16" ht="27.95" customHeight="1">
+      <c r="B13" s="197" t="s">
         <v>314</v>
       </c>
-      <c r="C13" s="208"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="208"/>
-      <c r="J13" s="208" t="s">
+      <c r="C13" s="197"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
+      <c r="J13" s="197" t="s">
         <v>312</v>
       </c>
-      <c r="K13" s="208"/>
-      <c r="L13" s="208"/>
-      <c r="M13" s="208"/>
-      <c r="N13" s="208"/>
-      <c r="O13" s="208"/>
+      <c r="K13" s="197"/>
+      <c r="L13" s="197"/>
+      <c r="M13" s="197"/>
+      <c r="N13" s="197"/>
+      <c r="O13" s="197"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="181" t="s">
         <v>283</v>
       </c>
-      <c r="C14" s="178"/>
-      <c r="D14" s="209" t="s">
+      <c r="C14" s="181"/>
+      <c r="D14" s="190" t="s">
         <v>284</v>
       </c>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
       <c r="H14" s="187" t="s">
         <v>313</v>
       </c>
-      <c r="J14" s="178" t="s">
+      <c r="J14" s="181" t="s">
         <v>283</v>
       </c>
-      <c r="K14" s="178"/>
-      <c r="L14" s="209" t="s">
+      <c r="K14" s="181"/>
+      <c r="L14" s="190" t="s">
         <v>284</v>
       </c>
-      <c r="M14" s="209"/>
-      <c r="N14" s="209"/>
-      <c r="O14" s="209"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="190"/>
       <c r="P14" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
       <c r="D15" s="47" t="s">
         <v>285</v>
       </c>
@@ -23532,8 +23576,8 @@
         <v>288</v>
       </c>
       <c r="H15" s="187"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="181"/>
       <c r="L15" s="47" t="s">
         <v>285</v>
       </c>
@@ -23547,616 +23591,721 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15.9" customHeight="1">
-      <c r="B16" s="178" t="s">
+    <row r="16" spans="2:16" ht="15.95" customHeight="1">
+      <c r="B16" s="181" t="s">
         <v>289</v>
       </c>
-      <c r="C16" s="205" t="s">
+      <c r="C16" s="202" t="s">
         <v>290</v>
       </c>
-      <c r="D16" s="206" t="s">
+      <c r="D16" s="198" t="s">
         <v>291</v>
       </c>
-      <c r="E16" s="206" t="s">
+      <c r="E16" s="198" t="s">
         <v>291</v>
       </c>
-      <c r="F16" s="205" t="s">
+      <c r="F16" s="202" t="s">
         <v>291</v>
       </c>
-      <c r="G16" s="192" t="s">
+      <c r="G16" s="193" t="s">
         <v>291</v>
       </c>
-      <c r="H16" s="190" t="s">
+      <c r="H16" s="208" t="s">
         <v>572</v>
       </c>
-      <c r="J16" s="178" t="s">
+      <c r="J16" s="181" t="s">
         <v>289</v>
       </c>
-      <c r="K16" s="205" t="s">
+      <c r="K16" s="202" t="s">
         <v>290</v>
       </c>
-      <c r="L16" s="206" t="s">
+      <c r="L16" s="198" t="s">
         <v>291</v>
       </c>
-      <c r="M16" s="206" t="s">
+      <c r="M16" s="198" t="s">
         <v>291</v>
       </c>
-      <c r="N16" s="205" t="s">
+      <c r="N16" s="202" t="s">
         <v>291</v>
       </c>
-      <c r="O16" s="192" t="s">
+      <c r="O16" s="193" t="s">
         <v>291</v>
       </c>
-      <c r="P16" s="198" t="s">
+      <c r="P16" s="203" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="178"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="190"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="205"/>
-      <c r="L17" s="206"/>
-      <c r="M17" s="206"/>
-      <c r="N17" s="205"/>
-      <c r="O17" s="192"/>
-      <c r="P17" s="199"/>
+      <c r="B17" s="181"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="208"/>
+      <c r="J17" s="181"/>
+      <c r="K17" s="202"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="198"/>
+      <c r="N17" s="202"/>
+      <c r="O17" s="193"/>
+      <c r="P17" s="204"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="178"/>
-      <c r="C18" s="207" t="s">
+      <c r="B18" s="181"/>
+      <c r="C18" s="195" t="s">
         <v>292</v>
       </c>
-      <c r="D18" s="191" t="s">
+      <c r="D18" s="196" t="s">
         <v>291</v>
       </c>
-      <c r="E18" s="191" t="s">
+      <c r="E18" s="196" t="s">
         <v>293</v>
       </c>
-      <c r="F18" s="191" t="s">
+      <c r="F18" s="196" t="s">
         <v>294</v>
       </c>
-      <c r="G18" s="191" t="s">
+      <c r="G18" s="196" t="s">
         <v>295</v>
       </c>
-      <c r="H18" s="190"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178" t="s">
+      <c r="H18" s="208"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="181" t="s">
         <v>292</v>
       </c>
-      <c r="L18" s="191" t="s">
+      <c r="L18" s="196" t="s">
         <v>291</v>
       </c>
-      <c r="M18" s="191" t="s">
+      <c r="M18" s="196" t="s">
         <v>293</v>
       </c>
-      <c r="N18" s="191" t="s">
+      <c r="N18" s="196" t="s">
         <v>294</v>
       </c>
-      <c r="O18" s="191" t="s">
+      <c r="O18" s="196" t="s">
         <v>295</v>
       </c>
-      <c r="P18" s="199"/>
+      <c r="P18" s="204"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="178"/>
-      <c r="C19" s="207"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="190"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="191"/>
-      <c r="M19" s="191"/>
-      <c r="N19" s="191"/>
-      <c r="O19" s="191"/>
-      <c r="P19" s="199"/>
-    </row>
-    <row r="20" spans="2:16" ht="15.9" customHeight="1">
-      <c r="B20" s="178"/>
-      <c r="C20" s="203" t="s">
+      <c r="B19" s="181"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="208"/>
+      <c r="J19" s="181"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="196"/>
+      <c r="M19" s="196"/>
+      <c r="N19" s="196"/>
+      <c r="O19" s="196"/>
+      <c r="P19" s="204"/>
+    </row>
+    <row r="20" spans="2:16" ht="15.95" customHeight="1">
+      <c r="B20" s="181"/>
+      <c r="C20" s="199" t="s">
         <v>316</v>
       </c>
-      <c r="D20" s="191" t="s">
+      <c r="D20" s="196" t="s">
         <v>317</v>
       </c>
-      <c r="E20" s="191" t="s">
+      <c r="E20" s="196" t="s">
         <v>318</v>
       </c>
-      <c r="F20" s="191" t="s">
+      <c r="F20" s="196" t="s">
         <v>319</v>
       </c>
-      <c r="G20" s="191" t="s">
+      <c r="G20" s="196" t="s">
         <v>320</v>
       </c>
-      <c r="H20" s="190"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="202" t="s">
+      <c r="H20" s="208"/>
+      <c r="J20" s="181"/>
+      <c r="K20" s="192" t="s">
         <v>296</v>
       </c>
-      <c r="L20" s="192" t="s">
+      <c r="L20" s="193" t="s">
         <v>294</v>
       </c>
-      <c r="M20" s="192" t="s">
+      <c r="M20" s="193" t="s">
         <v>294</v>
       </c>
-      <c r="N20" s="192" t="s">
+      <c r="N20" s="193" t="s">
         <v>297</v>
       </c>
-      <c r="O20" s="192" t="s">
+      <c r="O20" s="193" t="s">
         <v>295</v>
       </c>
-      <c r="P20" s="199"/>
-    </row>
-    <row r="21" spans="2:16" ht="15.9" customHeight="1">
-      <c r="B21" s="178"/>
-      <c r="C21" s="204"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
-      <c r="H21" s="190"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="202"/>
-      <c r="L21" s="192"/>
-      <c r="M21" s="192"/>
-      <c r="N21" s="192"/>
-      <c r="O21" s="192"/>
-      <c r="P21" s="199"/>
-    </row>
-    <row r="22" spans="2:16" ht="15.9" customHeight="1">
-      <c r="B22" s="178"/>
-      <c r="C22" s="213" t="s">
+      <c r="P20" s="204"/>
+    </row>
+    <row r="21" spans="2:16" ht="15.95" customHeight="1">
+      <c r="B21" s="181"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="208"/>
+      <c r="J21" s="181"/>
+      <c r="K21" s="192"/>
+      <c r="L21" s="193"/>
+      <c r="M21" s="193"/>
+      <c r="N21" s="193"/>
+      <c r="O21" s="193"/>
+      <c r="P21" s="204"/>
+    </row>
+    <row r="22" spans="2:16" ht="15.95" customHeight="1">
+      <c r="B22" s="181"/>
+      <c r="C22" s="191" t="s">
         <v>571</v>
       </c>
-      <c r="D22" s="192" t="s">
+      <c r="D22" s="193" t="s">
         <v>294</v>
       </c>
-      <c r="E22" s="192" t="s">
+      <c r="E22" s="193" t="s">
         <v>294</v>
       </c>
-      <c r="F22" s="192" t="s">
+      <c r="F22" s="193" t="s">
         <v>297</v>
       </c>
-      <c r="G22" s="192" t="s">
+      <c r="G22" s="193" t="s">
         <v>295</v>
       </c>
-      <c r="H22" s="190"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178" t="s">
+      <c r="H22" s="208"/>
+      <c r="J22" s="181"/>
+      <c r="K22" s="181" t="s">
         <v>298</v>
       </c>
-      <c r="L22" s="192" t="s">
+      <c r="L22" s="193" t="s">
         <v>299</v>
       </c>
-      <c r="M22" s="192" t="s">
+      <c r="M22" s="193" t="s">
         <v>299</v>
       </c>
-      <c r="N22" s="192" t="s">
+      <c r="N22" s="193" t="s">
         <v>300</v>
       </c>
-      <c r="O22" s="192" t="s">
+      <c r="O22" s="193" t="s">
         <v>301</v>
       </c>
-      <c r="P22" s="199"/>
+      <c r="P22" s="204"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="178"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="190"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="192"/>
-      <c r="M23" s="192"/>
-      <c r="N23" s="192"/>
-      <c r="O23" s="192"/>
-      <c r="P23" s="199"/>
-    </row>
-    <row r="24" spans="2:16" ht="15.9" customHeight="1">
-      <c r="B24" s="178"/>
-      <c r="C24" s="203" t="s">
+      <c r="B23" s="181"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="208"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="193"/>
+      <c r="M23" s="193"/>
+      <c r="N23" s="193"/>
+      <c r="O23" s="193"/>
+      <c r="P23" s="204"/>
+    </row>
+    <row r="24" spans="2:16" ht="15.95" customHeight="1">
+      <c r="B24" s="181"/>
+      <c r="C24" s="199" t="s">
         <v>570</v>
       </c>
-      <c r="D24" s="192" t="s">
+      <c r="D24" s="193" t="s">
         <v>299</v>
       </c>
-      <c r="E24" s="192" t="s">
+      <c r="E24" s="193" t="s">
         <v>299</v>
       </c>
-      <c r="F24" s="192" t="s">
+      <c r="F24" s="193" t="s">
         <v>300</v>
       </c>
-      <c r="G24" s="192" t="s">
+      <c r="G24" s="193" t="s">
         <v>301</v>
       </c>
-      <c r="H24" s="190"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="197" t="s">
+      <c r="H24" s="208"/>
+      <c r="J24" s="181"/>
+      <c r="K24" s="213" t="s">
         <v>302</v>
       </c>
-      <c r="L24" s="192" t="s">
+      <c r="L24" s="193" t="s">
         <v>303</v>
       </c>
-      <c r="M24" s="192" t="s">
+      <c r="M24" s="193" t="s">
         <v>300</v>
       </c>
-      <c r="N24" s="192" t="s">
+      <c r="N24" s="193" t="s">
         <v>328</v>
       </c>
-      <c r="O24" s="192" t="s">
+      <c r="O24" s="193" t="s">
         <v>301</v>
       </c>
-      <c r="P24" s="199"/>
+      <c r="P24" s="204"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="178"/>
-      <c r="C25" s="204"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="190"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="197"/>
-      <c r="L25" s="192"/>
-      <c r="M25" s="192"/>
-      <c r="N25" s="192"/>
-      <c r="O25" s="192"/>
-      <c r="P25" s="199"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="208"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="213"/>
+      <c r="L25" s="193"/>
+      <c r="M25" s="193"/>
+      <c r="N25" s="193"/>
+      <c r="O25" s="193"/>
+      <c r="P25" s="204"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="178"/>
-      <c r="C26" s="178" t="s">
+      <c r="B26" s="181"/>
+      <c r="C26" s="181" t="s">
         <v>315</v>
       </c>
-      <c r="D26" s="192" t="s">
+      <c r="D26" s="193" t="s">
         <v>303</v>
       </c>
-      <c r="E26" s="192" t="s">
+      <c r="E26" s="193" t="s">
         <v>300</v>
       </c>
-      <c r="F26" s="192" t="s">
+      <c r="F26" s="193" t="s">
         <v>323</v>
       </c>
-      <c r="G26" s="192" t="s">
+      <c r="G26" s="193" t="s">
         <v>301</v>
       </c>
-      <c r="H26" s="190"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="178" t="s">
+      <c r="H26" s="208"/>
+      <c r="J26" s="210"/>
+      <c r="K26" s="181" t="s">
         <v>304</v>
       </c>
-      <c r="L26" s="191" t="s">
+      <c r="L26" s="196" t="s">
         <v>291</v>
       </c>
-      <c r="M26" s="191" t="s">
+      <c r="M26" s="196" t="s">
         <v>293</v>
       </c>
-      <c r="N26" s="191" t="s">
+      <c r="N26" s="196" t="s">
         <v>294</v>
       </c>
-      <c r="O26" s="191" t="s">
+      <c r="O26" s="196" t="s">
         <v>295</v>
       </c>
-      <c r="P26" s="199"/>
+      <c r="P26" s="204"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="178"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="192"/>
-      <c r="H27" s="190"/>
-      <c r="J27" s="195"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="191"/>
-      <c r="M27" s="191"/>
-      <c r="N27" s="191"/>
-      <c r="O27" s="191"/>
-      <c r="P27" s="199"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="193"/>
+      <c r="E27" s="193"/>
+      <c r="F27" s="193"/>
+      <c r="G27" s="193"/>
+      <c r="H27" s="208"/>
+      <c r="J27" s="211"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="196"/>
+      <c r="M27" s="196"/>
+      <c r="N27" s="196"/>
+      <c r="O27" s="196"/>
+      <c r="P27" s="204"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="189"/>
-      <c r="C28" s="207" t="s">
+      <c r="B28" s="207"/>
+      <c r="C28" s="195" t="s">
         <v>569</v>
       </c>
-      <c r="D28" s="191" t="s">
+      <c r="D28" s="196" t="s">
         <v>291</v>
       </c>
-      <c r="E28" s="191" t="s">
+      <c r="E28" s="196" t="s">
         <v>293</v>
       </c>
-      <c r="F28" s="191" t="s">
+      <c r="F28" s="196" t="s">
         <v>294</v>
       </c>
-      <c r="G28" s="191" t="s">
+      <c r="G28" s="196" t="s">
         <v>295</v>
       </c>
-      <c r="H28" s="190"/>
-      <c r="J28" s="195"/>
-      <c r="K28" s="178" t="s">
+      <c r="H28" s="208"/>
+      <c r="J28" s="211"/>
+      <c r="K28" s="181" t="s">
         <v>305</v>
       </c>
-      <c r="L28" s="192" t="s">
+      <c r="L28" s="193" t="s">
         <v>294</v>
       </c>
-      <c r="M28" s="192" t="s">
+      <c r="M28" s="193" t="s">
         <v>297</v>
       </c>
-      <c r="N28" s="192" t="s">
+      <c r="N28" s="193" t="s">
         <v>299</v>
       </c>
-      <c r="O28" s="192" t="s">
+      <c r="O28" s="193" t="s">
         <v>295</v>
       </c>
-      <c r="P28" s="199"/>
+      <c r="P28" s="204"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="189"/>
-      <c r="C29" s="207"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="191"/>
-      <c r="G29" s="191"/>
-      <c r="H29" s="190"/>
-      <c r="J29" s="195"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="192"/>
-      <c r="M29" s="192"/>
-      <c r="N29" s="192"/>
-      <c r="O29" s="192"/>
-      <c r="P29" s="199"/>
+      <c r="B29" s="207"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="208"/>
+      <c r="J29" s="211"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="193"/>
+      <c r="M29" s="193"/>
+      <c r="N29" s="193"/>
+      <c r="O29" s="193"/>
+      <c r="P29" s="204"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="189"/>
-      <c r="C30" s="211" t="s">
+      <c r="B30" s="207"/>
+      <c r="C30" s="201" t="s">
         <v>568</v>
       </c>
-      <c r="D30" s="192" t="s">
+      <c r="D30" s="193" t="s">
         <v>294</v>
       </c>
-      <c r="E30" s="192" t="s">
+      <c r="E30" s="193" t="s">
         <v>297</v>
       </c>
-      <c r="F30" s="192" t="s">
+      <c r="F30" s="193" t="s">
         <v>299</v>
       </c>
-      <c r="G30" s="192" t="s">
+      <c r="G30" s="193" t="s">
         <v>295</v>
       </c>
-      <c r="H30" s="190"/>
-      <c r="J30" s="195"/>
-      <c r="K30" s="201" t="s">
+      <c r="H30" s="208"/>
+      <c r="J30" s="211"/>
+      <c r="K30" s="206" t="s">
         <v>306</v>
       </c>
-      <c r="L30" s="192" t="s">
+      <c r="L30" s="193" t="s">
         <v>297</v>
       </c>
-      <c r="M30" s="192" t="s">
+      <c r="M30" s="193" t="s">
         <v>299</v>
       </c>
-      <c r="N30" s="192" t="s">
+      <c r="N30" s="193" t="s">
         <v>330</v>
       </c>
-      <c r="O30" s="193" t="s">
+      <c r="O30" s="209" t="s">
         <v>295</v>
       </c>
-      <c r="P30" s="199"/>
+      <c r="P30" s="204"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="189"/>
-      <c r="C31" s="211"/>
-      <c r="D31" s="192"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="192"/>
-      <c r="G31" s="192"/>
-      <c r="H31" s="190"/>
-      <c r="J31" s="195"/>
-      <c r="K31" s="201"/>
-      <c r="L31" s="192"/>
-      <c r="M31" s="192"/>
-      <c r="N31" s="192"/>
-      <c r="O31" s="193"/>
-      <c r="P31" s="199"/>
-    </row>
-    <row r="32" spans="2:16" ht="15.9" customHeight="1">
-      <c r="B32" s="189"/>
-      <c r="C32" s="210" t="s">
+      <c r="B31" s="207"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="208"/>
+      <c r="J31" s="211"/>
+      <c r="K31" s="206"/>
+      <c r="L31" s="193"/>
+      <c r="M31" s="193"/>
+      <c r="N31" s="193"/>
+      <c r="O31" s="209"/>
+      <c r="P31" s="204"/>
+    </row>
+    <row r="32" spans="2:16" ht="15.95" customHeight="1">
+      <c r="B32" s="207"/>
+      <c r="C32" s="194" t="s">
         <v>306</v>
       </c>
-      <c r="D32" s="192" t="s">
+      <c r="D32" s="193" t="s">
         <v>297</v>
       </c>
-      <c r="E32" s="192" t="s">
+      <c r="E32" s="193" t="s">
         <v>299</v>
       </c>
-      <c r="F32" s="192" t="s">
+      <c r="F32" s="193" t="s">
         <v>329</v>
       </c>
-      <c r="G32" s="192" t="s">
+      <c r="G32" s="193" t="s">
         <v>321</v>
       </c>
-      <c r="H32" s="190"/>
-      <c r="J32" s="195"/>
-      <c r="K32" s="178" t="s">
+      <c r="H32" s="208"/>
+      <c r="J32" s="211"/>
+      <c r="K32" s="181" t="s">
         <v>307</v>
       </c>
-      <c r="L32" s="192" t="s">
+      <c r="L32" s="193" t="s">
         <v>297</v>
       </c>
-      <c r="M32" s="192" t="s">
+      <c r="M32" s="193" t="s">
         <v>299</v>
       </c>
-      <c r="N32" s="192" t="s">
+      <c r="N32" s="193" t="s">
         <v>324</v>
       </c>
-      <c r="O32" s="192" t="s">
+      <c r="O32" s="193" t="s">
         <v>308</v>
       </c>
-      <c r="P32" s="199"/>
+      <c r="P32" s="204"/>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="189"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="190"/>
-      <c r="J33" s="195"/>
-      <c r="K33" s="178"/>
-      <c r="L33" s="192"/>
-      <c r="M33" s="192"/>
-      <c r="N33" s="192"/>
-      <c r="O33" s="192"/>
-      <c r="P33" s="199"/>
+      <c r="B33" s="207"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="193"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="208"/>
+      <c r="J33" s="211"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="193"/>
+      <c r="M33" s="193"/>
+      <c r="N33" s="193"/>
+      <c r="O33" s="193"/>
+      <c r="P33" s="204"/>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="189"/>
-      <c r="C34" s="210" t="s">
+      <c r="B34" s="207"/>
+      <c r="C34" s="194" t="s">
         <v>307</v>
       </c>
-      <c r="D34" s="192" t="s">
+      <c r="D34" s="193" t="s">
         <v>297</v>
       </c>
-      <c r="E34" s="192" t="s">
+      <c r="E34" s="193" t="s">
         <v>299</v>
       </c>
-      <c r="F34" s="192" t="s">
+      <c r="F34" s="193" t="s">
         <v>567</v>
       </c>
-      <c r="G34" s="192" t="s">
+      <c r="G34" s="193" t="s">
         <v>308</v>
       </c>
-      <c r="H34" s="190"/>
-      <c r="J34" s="195"/>
-      <c r="K34" s="178" t="s">
+      <c r="H34" s="208"/>
+      <c r="J34" s="211"/>
+      <c r="K34" s="181" t="s">
         <v>309</v>
       </c>
-      <c r="L34" s="192" t="s">
+      <c r="L34" s="193" t="s">
         <v>297</v>
       </c>
-      <c r="M34" s="192" t="s">
+      <c r="M34" s="193" t="s">
         <v>299</v>
       </c>
-      <c r="N34" s="192" t="s">
+      <c r="N34" s="193" t="s">
         <v>331</v>
       </c>
-      <c r="O34" s="192" t="s">
+      <c r="O34" s="193" t="s">
         <v>308</v>
       </c>
-      <c r="P34" s="199"/>
+      <c r="P34" s="204"/>
     </row>
     <row r="35" spans="2:16">
-      <c r="B35" s="189"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="192"/>
-      <c r="E35" s="192"/>
-      <c r="F35" s="192"/>
-      <c r="G35" s="192"/>
-      <c r="H35" s="190"/>
-      <c r="J35" s="195"/>
-      <c r="K35" s="178"/>
-      <c r="L35" s="192"/>
-      <c r="M35" s="192"/>
-      <c r="N35" s="192"/>
-      <c r="O35" s="192"/>
-      <c r="P35" s="199"/>
-    </row>
-    <row r="36" spans="2:16" ht="15.9" customHeight="1">
-      <c r="B36" s="189"/>
-      <c r="C36" s="210" t="s">
+      <c r="B35" s="207"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="193"/>
+      <c r="E35" s="193"/>
+      <c r="F35" s="193"/>
+      <c r="G35" s="193"/>
+      <c r="H35" s="208"/>
+      <c r="J35" s="211"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="193"/>
+      <c r="M35" s="193"/>
+      <c r="N35" s="193"/>
+      <c r="O35" s="193"/>
+      <c r="P35" s="204"/>
+    </row>
+    <row r="36" spans="2:16" ht="15.95" customHeight="1">
+      <c r="B36" s="207"/>
+      <c r="C36" s="194" t="s">
         <v>309</v>
       </c>
-      <c r="D36" s="192" t="s">
+      <c r="D36" s="193" t="s">
         <v>297</v>
       </c>
-      <c r="E36" s="192" t="s">
+      <c r="E36" s="193" t="s">
         <v>299</v>
       </c>
-      <c r="F36" s="192" t="s">
+      <c r="F36" s="193" t="s">
         <v>332</v>
       </c>
-      <c r="G36" s="192" t="s">
+      <c r="G36" s="193" t="s">
         <v>308</v>
       </c>
-      <c r="H36" s="190"/>
-      <c r="J36" s="195"/>
-      <c r="K36" s="178" t="s">
+      <c r="H36" s="208"/>
+      <c r="J36" s="211"/>
+      <c r="K36" s="181" t="s">
         <v>310</v>
       </c>
-      <c r="L36" s="192" t="s">
+      <c r="L36" s="193" t="s">
         <v>311</v>
       </c>
-      <c r="M36" s="192" t="s">
+      <c r="M36" s="193" t="s">
         <v>326</v>
       </c>
-      <c r="N36" s="192" t="s">
+      <c r="N36" s="193" t="s">
         <v>327</v>
       </c>
-      <c r="O36" s="192" t="s">
+      <c r="O36" s="193" t="s">
         <v>308</v>
       </c>
-      <c r="P36" s="199"/>
+      <c r="P36" s="204"/>
     </row>
     <row r="37" spans="2:16">
-      <c r="B37" s="189"/>
-      <c r="C37" s="210"/>
-      <c r="D37" s="192"/>
-      <c r="E37" s="192"/>
-      <c r="F37" s="192"/>
-      <c r="G37" s="192"/>
-      <c r="H37" s="190"/>
-      <c r="J37" s="196"/>
-      <c r="K37" s="178"/>
-      <c r="L37" s="192"/>
-      <c r="M37" s="192"/>
-      <c r="N37" s="192"/>
-      <c r="O37" s="192"/>
-      <c r="P37" s="200"/>
+      <c r="B37" s="207"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="193"/>
+      <c r="E37" s="193"/>
+      <c r="F37" s="193"/>
+      <c r="G37" s="193"/>
+      <c r="H37" s="208"/>
+      <c r="J37" s="212"/>
+      <c r="K37" s="181"/>
+      <c r="L37" s="193"/>
+      <c r="M37" s="193"/>
+      <c r="N37" s="193"/>
+      <c r="O37" s="193"/>
+      <c r="P37" s="205"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="189"/>
-      <c r="C38" s="178" t="s">
+      <c r="B38" s="207"/>
+      <c r="C38" s="181" t="s">
         <v>310</v>
       </c>
-      <c r="D38" s="192" t="s">
+      <c r="D38" s="193" t="s">
         <v>311</v>
       </c>
-      <c r="E38" s="192" t="s">
+      <c r="E38" s="193" t="s">
         <v>322</v>
       </c>
-      <c r="F38" s="192" t="s">
+      <c r="F38" s="193" t="s">
         <v>325</v>
       </c>
-      <c r="G38" s="192" t="s">
+      <c r="G38" s="193" t="s">
         <v>308</v>
       </c>
-      <c r="H38" s="190"/>
+      <c r="H38" s="208"/>
     </row>
     <row r="39" spans="2:16">
-      <c r="B39" s="189"/>
-      <c r="C39" s="178"/>
-      <c r="D39" s="192"/>
-      <c r="E39" s="192"/>
-      <c r="F39" s="192"/>
-      <c r="G39" s="192"/>
-      <c r="H39" s="190"/>
+      <c r="B39" s="207"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="193"/>
+      <c r="E39" s="193"/>
+      <c r="F39" s="193"/>
+      <c r="G39" s="193"/>
+      <c r="H39" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="129">
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="H16:H39"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="J26:J37"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="P16:P37"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="J16:J25"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="C22:C23"/>
@@ -24181,111 +24330,6 @@
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="B13:G13"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="J16:J25"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="P16:P37"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="H16:H39"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="J26:J37"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="K22:K23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24301,313 +24345,313 @@
       <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" customWidth="1"/>
-    <col min="8" max="8" width="18.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="22.625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="35" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="14" width="6.90625" customWidth="1"/>
-    <col min="15" max="16" width="7.90625" customWidth="1"/>
+    <col min="13" max="14" width="6.875" customWidth="1"/>
+    <col min="15" max="16" width="7.875" customWidth="1"/>
     <col min="17" max="17" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="38.1" customHeight="1">
       <c r="A2" s="38"/>
-      <c r="B2" s="233" t="s">
+      <c r="B2" s="220" t="s">
         <v>338</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
       <c r="H2" s="36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="202" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="178" t="s">
+      <c r="C3" s="202"/>
+      <c r="D3" s="181" t="s">
         <v>335</v>
       </c>
-      <c r="E3" s="205" t="s">
+      <c r="E3" s="202" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="228" t="s">
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="223" t="s">
         <v>340</v>
       </c>
-      <c r="K3" s="239"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="227"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="227"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="219"/>
+      <c r="O3" s="218"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="228"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="227"/>
-      <c r="M4" s="227"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="227"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="223"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="218"/>
+      <c r="N4" s="219"/>
+      <c r="O4" s="218"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="B5" s="205"/>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205" t="s">
+      <c r="B5" s="202"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202" t="s">
         <v>337</v>
       </c>
-      <c r="E5" s="205" t="s">
+      <c r="E5" s="202" t="s">
         <v>337</v>
       </c>
-      <c r="F5" s="205" t="s">
+      <c r="F5" s="202" t="s">
         <v>287</v>
       </c>
-      <c r="G5" s="205" t="s">
+      <c r="G5" s="202" t="s">
         <v>288</v>
       </c>
-      <c r="H5" s="228"/>
-      <c r="K5" s="227"/>
-      <c r="L5" s="227"/>
-      <c r="M5" s="227"/>
-      <c r="N5" s="227"/>
-      <c r="O5" s="227"/>
-      <c r="P5" s="227"/>
-      <c r="Q5" s="227"/>
+      <c r="H5" s="223"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="218"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="B6" s="205"/>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="228"/>
-      <c r="K6" s="227"/>
-      <c r="L6" s="227"/>
-      <c r="M6" s="227"/>
-      <c r="N6" s="227"/>
-      <c r="O6" s="227"/>
-      <c r="P6" s="227"/>
-      <c r="Q6" s="227"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="223"/>
+      <c r="K6" s="218"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="218"/>
+      <c r="N6" s="218"/>
+      <c r="O6" s="218"/>
+      <c r="P6" s="218"/>
+      <c r="Q6" s="218"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="181" t="s">
         <v>335</v>
       </c>
-      <c r="C7" s="205" t="s">
+      <c r="C7" s="202" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="205">
+      <c r="D7" s="202">
         <v>13</v>
       </c>
-      <c r="E7" s="236">
+      <c r="E7" s="216">
         <v>9</v>
       </c>
-      <c r="F7" s="236">
+      <c r="F7" s="216">
         <v>11</v>
       </c>
-      <c r="G7" s="236">
+      <c r="G7" s="216">
         <v>14</v>
       </c>
-      <c r="H7" s="228"/>
-      <c r="K7" s="227"/>
-      <c r="L7" s="227"/>
-      <c r="M7" s="227"/>
-      <c r="N7" s="227"/>
-      <c r="O7" s="227"/>
-      <c r="P7" s="227"/>
-      <c r="Q7" s="227"/>
-      <c r="R7" s="227"/>
-      <c r="S7" s="227"/>
-      <c r="T7" s="227"/>
-      <c r="U7" s="227"/>
-      <c r="V7" s="227"/>
-      <c r="W7" s="227"/>
+      <c r="H7" s="223"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="218"/>
+      <c r="Q7" s="218"/>
+      <c r="R7" s="218"/>
+      <c r="S7" s="218"/>
+      <c r="T7" s="218"/>
+      <c r="U7" s="218"/>
+      <c r="V7" s="218"/>
+      <c r="W7" s="218"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="B8" s="178"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="236"/>
-      <c r="F8" s="236"/>
-      <c r="G8" s="236"/>
-      <c r="H8" s="228"/>
-      <c r="K8" s="227"/>
-      <c r="L8" s="227"/>
-      <c r="M8" s="227"/>
-      <c r="N8" s="227"/>
-      <c r="O8" s="227"/>
-      <c r="P8" s="227"/>
-      <c r="Q8" s="227"/>
-      <c r="R8" s="227"/>
-      <c r="S8" s="227"/>
-      <c r="T8" s="227"/>
-      <c r="U8" s="227"/>
-      <c r="V8" s="227"/>
-      <c r="W8" s="227"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="223"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="218"/>
+      <c r="M8" s="218"/>
+      <c r="N8" s="218"/>
+      <c r="O8" s="218"/>
+      <c r="P8" s="218"/>
+      <c r="Q8" s="218"/>
+      <c r="R8" s="218"/>
+      <c r="S8" s="218"/>
+      <c r="T8" s="218"/>
+      <c r="U8" s="218"/>
+      <c r="V8" s="218"/>
+      <c r="W8" s="218"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="B9" s="178" t="s">
+      <c r="B9" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="C9" s="205" t="s">
+      <c r="C9" s="202" t="s">
         <v>337</v>
       </c>
       <c r="D9" s="187"/>
-      <c r="E9" s="205">
+      <c r="E9" s="202">
         <v>6</v>
       </c>
-      <c r="F9" s="205">
+      <c r="F9" s="202">
         <v>7</v>
       </c>
-      <c r="G9" s="205">
+      <c r="G9" s="202">
         <v>9</v>
       </c>
-      <c r="H9" s="228"/>
+      <c r="H9" s="223"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="B10" s="178"/>
-      <c r="C10" s="205"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="202"/>
       <c r="D10" s="187"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="228"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="223"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="B11" s="178"/>
-      <c r="C11" s="205" t="s">
+      <c r="B11" s="181"/>
+      <c r="C11" s="202" t="s">
         <v>287</v>
       </c>
       <c r="D11" s="187"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="205">
+      <c r="E11" s="221"/>
+      <c r="F11" s="202">
         <v>8</v>
       </c>
-      <c r="G11" s="205">
+      <c r="G11" s="202">
         <v>10</v>
       </c>
-      <c r="H11" s="228"/>
+      <c r="H11" s="223"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="B12" s="178"/>
-      <c r="C12" s="205"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="202"/>
       <c r="D12" s="187"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="205"/>
-      <c r="G12" s="205"/>
-      <c r="H12" s="228"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="202"/>
+      <c r="H12" s="223"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="B13" s="178"/>
-      <c r="C13" s="205" t="s">
+      <c r="B13" s="181"/>
+      <c r="C13" s="202" t="s">
         <v>288</v>
       </c>
       <c r="D13" s="187"/>
       <c r="E13" s="187"/>
-      <c r="F13" s="234"/>
-      <c r="G13" s="205">
+      <c r="F13" s="221"/>
+      <c r="G13" s="202">
         <v>12</v>
       </c>
-      <c r="H13" s="228"/>
+      <c r="H13" s="223"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="B14" s="178"/>
-      <c r="C14" s="205"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="202"/>
       <c r="D14" s="187"/>
       <c r="E14" s="187"/>
-      <c r="F14" s="235"/>
-      <c r="G14" s="205"/>
-      <c r="H14" s="228"/>
-    </row>
-    <row r="16" spans="1:23" ht="31.2">
+      <c r="F14" s="222"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="223"/>
+    </row>
+    <row r="16" spans="1:23" ht="31.5">
       <c r="B16" s="35" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="255.9" customHeight="1">
+    <row r="17" spans="1:17" ht="255.95" customHeight="1">
       <c r="A17" s="95" t="s">
         <v>573</v>
       </c>
-      <c r="B17" s="229" t="s">
+      <c r="B17" s="224" t="s">
         <v>343</v>
       </c>
-      <c r="C17" s="229"/>
-      <c r="D17" s="229"/>
-      <c r="E17" s="229"/>
-      <c r="F17" s="229"/>
-      <c r="G17" s="229"/>
-      <c r="H17" s="229"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="224"/>
+      <c r="H17" s="224"/>
     </row>
     <row r="18" spans="1:17" ht="200.1" customHeight="1">
       <c r="A18" s="96" t="s">
         <v>574</v>
       </c>
-      <c r="B18" s="230" t="s">
+      <c r="B18" s="225" t="s">
         <v>342</v>
       </c>
-      <c r="C18" s="230"/>
-      <c r="D18" s="230"/>
-      <c r="E18" s="230"/>
-      <c r="F18" s="230"/>
-      <c r="G18" s="230"/>
-      <c r="H18" s="230"/>
-    </row>
-    <row r="19" spans="1:17" ht="234.9" customHeight="1">
+      <c r="C18" s="225"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
+    </row>
+    <row r="19" spans="1:17" ht="234.95" customHeight="1">
       <c r="A19" s="96" t="s">
         <v>575</v>
       </c>
-      <c r="B19" s="229" t="s">
+      <c r="B19" s="224" t="s">
         <v>344</v>
       </c>
-      <c r="C19" s="229"/>
-      <c r="D19" s="229"/>
-      <c r="E19" s="229"/>
-      <c r="F19" s="229"/>
-      <c r="G19" s="229"/>
-      <c r="H19" s="229"/>
-    </row>
-    <row r="20" spans="1:17" ht="273.89999999999998" customHeight="1">
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+    </row>
+    <row r="20" spans="1:17" ht="273.95" customHeight="1">
       <c r="A20" s="95" t="s">
         <v>576</v>
       </c>
-      <c r="B20" s="229" t="s">
+      <c r="B20" s="224" t="s">
         <v>345</v>
       </c>
-      <c r="C20" s="229"/>
-      <c r="D20" s="229"/>
-      <c r="E20" s="229"/>
-      <c r="F20" s="229"/>
-      <c r="G20" s="229"/>
-      <c r="H20" s="229"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="224"/>
+      <c r="G20" s="224"/>
+      <c r="H20" s="224"/>
     </row>
     <row r="21" spans="1:17" s="35" customFormat="1" ht="314.10000000000002" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>577</v>
       </c>
-      <c r="B21" s="229" t="s">
+      <c r="B21" s="224" t="s">
         <v>346</v>
       </c>
-      <c r="C21" s="229"/>
-      <c r="D21" s="229"/>
-      <c r="E21" s="229"/>
-      <c r="F21" s="229"/>
-      <c r="G21" s="229"/>
-      <c r="H21" s="229"/>
+      <c r="C21" s="224"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="224"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="224"/>
     </row>
     <row r="22" spans="1:17" s="35" customFormat="1" ht="51.75" customHeight="1">
       <c r="A22" s="97" t="s">
@@ -24634,191 +24678,191 @@
       <c r="H23" s="55"/>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A24" s="208" t="s">
+      <c r="A24" s="197" t="s">
         <v>365</v>
       </c>
-      <c r="B24" s="208"/>
-      <c r="C24" s="208"/>
-      <c r="D24" s="208"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="208"/>
-      <c r="K24" s="208"/>
-      <c r="L24" s="208"/>
-      <c r="M24" s="208"/>
-      <c r="N24" s="208"/>
-      <c r="O24" s="208"/>
-      <c r="P24" s="208"/>
-      <c r="Q24" s="208"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.9" customHeight="1">
-      <c r="A25" s="189"/>
-      <c r="B25" s="189"/>
-      <c r="C25" s="189"/>
-      <c r="D25" s="205" t="s">
+      <c r="B24" s="197"/>
+      <c r="C24" s="197"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="197"/>
+      <c r="L24" s="197"/>
+      <c r="M24" s="197"/>
+      <c r="N24" s="197"/>
+      <c r="O24" s="197"/>
+      <c r="P24" s="197"/>
+      <c r="Q24" s="197"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.95" customHeight="1">
+      <c r="A25" s="207"/>
+      <c r="B25" s="207"/>
+      <c r="C25" s="207"/>
+      <c r="D25" s="202" t="s">
         <v>347</v>
       </c>
-      <c r="E25" s="205" t="s">
+      <c r="E25" s="202" t="s">
         <v>348</v>
       </c>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="217" t="s">
+      <c r="F25" s="202"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="231" t="s">
         <v>349</v>
       </c>
-      <c r="I25" s="217"/>
-      <c r="J25" s="217"/>
-      <c r="K25" s="217"/>
-      <c r="L25" s="205" t="s">
+      <c r="I25" s="231"/>
+      <c r="J25" s="231"/>
+      <c r="K25" s="231"/>
+      <c r="L25" s="202" t="s">
         <v>350</v>
       </c>
-      <c r="M25" s="205"/>
-      <c r="N25" s="205"/>
-      <c r="O25" s="205"/>
-      <c r="P25" s="205"/>
+      <c r="M25" s="202"/>
+      <c r="N25" s="202"/>
+      <c r="O25" s="202"/>
+      <c r="P25" s="202"/>
       <c r="Q25" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.9" customHeight="1">
-      <c r="A26" s="189"/>
-      <c r="B26" s="189"/>
-      <c r="C26" s="189"/>
-      <c r="D26" s="205"/>
-      <c r="E26" s="205"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="217"/>
-      <c r="I26" s="217"/>
-      <c r="J26" s="217"/>
-      <c r="K26" s="217"/>
-      <c r="L26" s="205"/>
-      <c r="M26" s="205"/>
-      <c r="N26" s="205"/>
-      <c r="O26" s="205"/>
-      <c r="P26" s="205"/>
-      <c r="Q26" s="231" t="s">
+    <row r="26" spans="1:17" ht="15.95" customHeight="1">
+      <c r="A26" s="207"/>
+      <c r="B26" s="207"/>
+      <c r="C26" s="207"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="231"/>
+      <c r="I26" s="231"/>
+      <c r="J26" s="231"/>
+      <c r="K26" s="231"/>
+      <c r="L26" s="202"/>
+      <c r="M26" s="202"/>
+      <c r="N26" s="202"/>
+      <c r="O26" s="202"/>
+      <c r="P26" s="202"/>
+      <c r="Q26" s="226" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="189"/>
-      <c r="B27" s="189"/>
-      <c r="C27" s="189"/>
-      <c r="D27" s="205" t="s">
+      <c r="A27" s="207"/>
+      <c r="B27" s="207"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="202" t="s">
         <v>351</v>
       </c>
-      <c r="E27" s="205" t="s">
+      <c r="E27" s="202" t="s">
         <v>352</v>
       </c>
-      <c r="F27" s="205"/>
-      <c r="G27" s="205" t="s">
+      <c r="F27" s="202"/>
+      <c r="G27" s="202" t="s">
         <v>353</v>
       </c>
-      <c r="H27" s="205" t="s">
+      <c r="H27" s="202" t="s">
         <v>352</v>
       </c>
-      <c r="I27" s="205"/>
-      <c r="J27" s="205"/>
-      <c r="K27" s="205" t="s">
+      <c r="I27" s="202"/>
+      <c r="J27" s="202"/>
+      <c r="K27" s="202" t="s">
         <v>353</v>
       </c>
-      <c r="L27" s="205" t="s">
+      <c r="L27" s="202" t="s">
         <v>354</v>
       </c>
-      <c r="M27" s="205"/>
-      <c r="N27" s="205"/>
-      <c r="O27" s="205" t="s">
+      <c r="M27" s="202"/>
+      <c r="N27" s="202"/>
+      <c r="O27" s="202" t="s">
         <v>353</v>
       </c>
-      <c r="P27" s="205"/>
-      <c r="Q27" s="232"/>
+      <c r="P27" s="202"/>
+      <c r="Q27" s="227"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="189"/>
-      <c r="B28" s="189"/>
-      <c r="C28" s="189"/>
-      <c r="D28" s="205"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="205"/>
-      <c r="H28" s="205"/>
-      <c r="I28" s="205"/>
-      <c r="J28" s="205"/>
-      <c r="K28" s="205"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="205"/>
-      <c r="N28" s="205"/>
-      <c r="O28" s="205"/>
-      <c r="P28" s="205"/>
-      <c r="Q28" s="232"/>
+      <c r="A28" s="207"/>
+      <c r="B28" s="207"/>
+      <c r="C28" s="207"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="202"/>
+      <c r="K28" s="202"/>
+      <c r="L28" s="202"/>
+      <c r="M28" s="202"/>
+      <c r="N28" s="202"/>
+      <c r="O28" s="202"/>
+      <c r="P28" s="202"/>
+      <c r="Q28" s="227"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="189"/>
-      <c r="B29" s="189"/>
-      <c r="C29" s="189"/>
-      <c r="D29" s="205" t="s">
+      <c r="A29" s="207"/>
+      <c r="B29" s="207"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="202" t="s">
         <v>355</v>
       </c>
-      <c r="E29" s="205" t="s">
+      <c r="E29" s="202" t="s">
         <v>356</v>
       </c>
-      <c r="F29" s="205" t="s">
+      <c r="F29" s="202" t="s">
         <v>287</v>
       </c>
-      <c r="G29" s="205" t="s">
+      <c r="G29" s="202" t="s">
         <v>357</v>
       </c>
-      <c r="H29" s="205" t="s">
+      <c r="H29" s="202" t="s">
         <v>356</v>
       </c>
-      <c r="I29" s="205" t="s">
+      <c r="I29" s="202" t="s">
         <v>287</v>
       </c>
-      <c r="J29" s="205" t="s">
+      <c r="J29" s="202" t="s">
         <v>288</v>
       </c>
-      <c r="K29" s="205" t="s">
+      <c r="K29" s="202" t="s">
         <v>357</v>
       </c>
-      <c r="L29" s="205" t="s">
+      <c r="L29" s="202" t="s">
         <v>358</v>
       </c>
-      <c r="M29" s="205" t="s">
+      <c r="M29" s="202" t="s">
         <v>359</v>
       </c>
-      <c r="N29" s="205" t="s">
+      <c r="N29" s="202" t="s">
         <v>360</v>
       </c>
-      <c r="O29" s="205" t="s">
+      <c r="O29" s="202" t="s">
         <v>361</v>
       </c>
-      <c r="P29" s="205" t="s">
+      <c r="P29" s="202" t="s">
         <v>362</v>
       </c>
-      <c r="Q29" s="232"/>
+      <c r="Q29" s="227"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="189"/>
-      <c r="B30" s="189"/>
-      <c r="C30" s="189"/>
-      <c r="D30" s="205"/>
-      <c r="E30" s="205"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="205"/>
-      <c r="H30" s="205"/>
-      <c r="I30" s="205"/>
-      <c r="J30" s="205"/>
-      <c r="K30" s="205"/>
-      <c r="L30" s="205"/>
-      <c r="M30" s="205"/>
-      <c r="N30" s="205"/>
-      <c r="O30" s="205"/>
-      <c r="P30" s="205"/>
-      <c r="Q30" s="232"/>
+      <c r="A30" s="207"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="207"/>
+      <c r="D30" s="202"/>
+      <c r="E30" s="202"/>
+      <c r="F30" s="202"/>
+      <c r="G30" s="202"/>
+      <c r="H30" s="202"/>
+      <c r="I30" s="202"/>
+      <c r="J30" s="202"/>
+      <c r="K30" s="202"/>
+      <c r="L30" s="202"/>
+      <c r="M30" s="202"/>
+      <c r="N30" s="202"/>
+      <c r="O30" s="202"/>
+      <c r="P30" s="202"/>
+      <c r="Q30" s="227"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="84" t="s">
@@ -24862,19 +24906,19 @@
         <f>13</f>
         <v>13</v>
       </c>
-      <c r="L31" s="218">
+      <c r="L31" s="232">
         <v>25</v>
       </c>
-      <c r="M31" s="219"/>
-      <c r="N31" s="220"/>
-      <c r="O31" s="218">
+      <c r="M31" s="233"/>
+      <c r="N31" s="234"/>
+      <c r="O31" s="232">
         <v>50</v>
       </c>
-      <c r="P31" s="220"/>
-      <c r="Q31" s="232"/>
+      <c r="P31" s="234"/>
+      <c r="Q31" s="227"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="186" t="s">
+      <c r="A32" s="184" t="s">
         <v>199</v>
       </c>
       <c r="B32" s="185" t="s">
@@ -24915,15 +24959,15 @@
         <f>13</f>
         <v>13</v>
       </c>
-      <c r="L32" s="221"/>
-      <c r="M32" s="222"/>
-      <c r="N32" s="223"/>
-      <c r="O32" s="221"/>
-      <c r="P32" s="223"/>
-      <c r="Q32" s="232"/>
+      <c r="L32" s="235"/>
+      <c r="M32" s="236"/>
+      <c r="N32" s="237"/>
+      <c r="O32" s="235"/>
+      <c r="P32" s="237"/>
+      <c r="Q32" s="227"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="186"/>
+      <c r="A33" s="184"/>
       <c r="B33" s="185"/>
       <c r="C33" s="30" t="s">
         <v>189</v>
@@ -24960,15 +25004,15 @@
         <f>13+2</f>
         <v>15</v>
       </c>
-      <c r="L33" s="221"/>
-      <c r="M33" s="222"/>
-      <c r="N33" s="223"/>
-      <c r="O33" s="221"/>
-      <c r="P33" s="223"/>
-      <c r="Q33" s="232"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.9" customHeight="1">
-      <c r="A34" s="186"/>
+      <c r="L33" s="235"/>
+      <c r="M33" s="236"/>
+      <c r="N33" s="237"/>
+      <c r="O33" s="235"/>
+      <c r="P33" s="237"/>
+      <c r="Q33" s="227"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.95" customHeight="1">
+      <c r="A34" s="184"/>
       <c r="B34" s="30" t="s">
         <v>154</v>
       </c>
@@ -25007,18 +25051,18 @@
         <f>13</f>
         <v>13</v>
       </c>
-      <c r="L34" s="224"/>
-      <c r="M34" s="225"/>
-      <c r="N34" s="226"/>
-      <c r="O34" s="224"/>
-      <c r="P34" s="226"/>
-      <c r="Q34" s="232"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.9" customHeight="1">
-      <c r="A35" s="186" t="s">
+      <c r="L34" s="238"/>
+      <c r="M34" s="239"/>
+      <c r="N34" s="240"/>
+      <c r="O34" s="238"/>
+      <c r="P34" s="240"/>
+      <c r="Q34" s="227"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.95" customHeight="1">
+      <c r="A35" s="184" t="s">
         <v>233</v>
       </c>
-      <c r="B35" s="186" t="s">
+      <c r="B35" s="184" t="s">
         <v>157</v>
       </c>
       <c r="C35" s="31" t="s">
@@ -25073,11 +25117,11 @@
       <c r="P35" s="57">
         <v>15</v>
       </c>
-      <c r="Q35" s="232"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.9" customHeight="1">
-      <c r="A36" s="186"/>
-      <c r="B36" s="186"/>
+      <c r="Q35" s="227"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.95" customHeight="1">
+      <c r="A36" s="184"/>
+      <c r="B36" s="184"/>
       <c r="C36" s="31" t="s">
         <v>189</v>
       </c>
@@ -25123,17 +25167,17 @@
       <c r="N36" s="5">
         <v>16</v>
       </c>
-      <c r="O36" s="214">
+      <c r="O36" s="228">
         <v>25</v>
       </c>
-      <c r="P36" s="214">
+      <c r="P36" s="228">
         <v>20</v>
       </c>
-      <c r="Q36" s="232"/>
-    </row>
-    <row r="37" spans="1:17" ht="15.9" customHeight="1">
-      <c r="A37" s="186"/>
-      <c r="B37" s="186"/>
+      <c r="Q36" s="227"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.95" customHeight="1">
+      <c r="A37" s="184"/>
+      <c r="B37" s="184"/>
       <c r="C37" s="31" t="s">
         <v>192</v>
       </c>
@@ -25180,12 +25224,12 @@
         <f>18</f>
         <v>18</v>
       </c>
-      <c r="O37" s="215"/>
-      <c r="P37" s="215"/>
-      <c r="Q37" s="232"/>
+      <c r="O37" s="229"/>
+      <c r="P37" s="229"/>
+      <c r="Q37" s="227"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="186"/>
+      <c r="A38" s="184"/>
       <c r="B38" s="31" t="s">
         <v>154</v>
       </c>
@@ -25241,13 +25285,13 @@
       <c r="P38" s="57">
         <v>15</v>
       </c>
-      <c r="Q38" s="232"/>
+      <c r="Q38" s="227"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="186" t="s">
+      <c r="A39" s="184" t="s">
         <v>363</v>
       </c>
-      <c r="B39" s="186" t="s">
+      <c r="B39" s="184" t="s">
         <v>157</v>
       </c>
       <c r="C39" s="31" t="s">
@@ -25302,11 +25346,11 @@
       <c r="P39" s="57">
         <v>13</v>
       </c>
-      <c r="Q39" s="232"/>
+      <c r="Q39" s="227"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="186"/>
-      <c r="B40" s="186"/>
+      <c r="A40" s="184"/>
+      <c r="B40" s="184"/>
       <c r="C40" s="31" t="s">
         <v>189</v>
       </c>
@@ -25352,17 +25396,17 @@
       <c r="N40" s="5">
         <v>16</v>
       </c>
-      <c r="O40" s="216">
+      <c r="O40" s="230">
         <v>18</v>
       </c>
-      <c r="P40" s="216">
+      <c r="P40" s="230">
         <v>15</v>
       </c>
-      <c r="Q40" s="232"/>
+      <c r="Q40" s="227"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="186"/>
-      <c r="B41" s="186"/>
+      <c r="A41" s="184"/>
+      <c r="B41" s="184"/>
       <c r="C41" s="31" t="s">
         <v>192</v>
       </c>
@@ -25409,12 +25453,12 @@
         <f>18</f>
         <v>18</v>
       </c>
-      <c r="O41" s="216"/>
-      <c r="P41" s="216"/>
-      <c r="Q41" s="232"/>
+      <c r="O41" s="230"/>
+      <c r="P41" s="230"/>
+      <c r="Q41" s="227"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="186"/>
+      <c r="A42" s="184"/>
       <c r="B42" s="31" t="s">
         <v>154</v>
       </c>
@@ -25470,7 +25514,7 @@
       <c r="P42" s="57">
         <v>13</v>
       </c>
-      <c r="Q42" s="232"/>
+      <c r="Q42" s="227"/>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="38" t="s">
@@ -25478,72 +25522,72 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="62.25" customHeight="1">
-      <c r="A45" s="237" t="s">
+      <c r="A45" s="215" t="s">
         <v>578</v>
       </c>
-      <c r="B45" s="238"/>
-      <c r="C45" s="238"/>
-      <c r="D45" s="238"/>
-      <c r="E45" s="238"/>
-      <c r="F45" s="238"/>
-      <c r="G45" s="238"/>
-      <c r="H45" s="238"/>
-      <c r="I45" s="238"/>
-      <c r="J45" s="238"/>
-      <c r="K45" s="238"/>
-      <c r="L45" s="238"/>
-      <c r="M45" s="238"/>
-      <c r="N45" s="238"/>
-      <c r="O45" s="238"/>
-      <c r="P45" s="238"/>
+      <c r="B45" s="214"/>
+      <c r="C45" s="214"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="214"/>
+      <c r="F45" s="214"/>
+      <c r="G45" s="214"/>
+      <c r="H45" s="214"/>
+      <c r="I45" s="214"/>
+      <c r="J45" s="214"/>
+      <c r="K45" s="214"/>
+      <c r="L45" s="214"/>
+      <c r="M45" s="214"/>
+      <c r="N45" s="214"/>
+      <c r="O45" s="214"/>
+      <c r="P45" s="214"/>
     </row>
     <row r="46" spans="1:17" ht="62.25" customHeight="1">
-      <c r="A46" s="237" t="s">
+      <c r="A46" s="215" t="s">
         <v>579</v>
       </c>
-      <c r="B46" s="238"/>
-      <c r="C46" s="238"/>
-      <c r="D46" s="238"/>
-      <c r="E46" s="238"/>
-      <c r="F46" s="238"/>
-      <c r="G46" s="238"/>
-      <c r="H46" s="238"/>
-      <c r="I46" s="238"/>
-      <c r="J46" s="238"/>
-      <c r="K46" s="238"/>
-      <c r="L46" s="238"/>
-      <c r="M46" s="238"/>
-      <c r="N46" s="238"/>
-      <c r="O46" s="238"/>
-      <c r="P46" s="238"/>
+      <c r="B46" s="214"/>
+      <c r="C46" s="214"/>
+      <c r="D46" s="214"/>
+      <c r="E46" s="214"/>
+      <c r="F46" s="214"/>
+      <c r="G46" s="214"/>
+      <c r="H46" s="214"/>
+      <c r="I46" s="214"/>
+      <c r="J46" s="214"/>
+      <c r="K46" s="214"/>
+      <c r="L46" s="214"/>
+      <c r="M46" s="214"/>
+      <c r="N46" s="214"/>
+      <c r="O46" s="214"/>
+      <c r="P46" s="214"/>
     </row>
     <row r="47" spans="1:17" ht="62.25" customHeight="1">
-      <c r="A47" s="237" t="s">
+      <c r="A47" s="215" t="s">
         <v>580</v>
       </c>
-      <c r="B47" s="238"/>
-      <c r="C47" s="238"/>
-      <c r="D47" s="238"/>
-      <c r="E47" s="238"/>
-      <c r="F47" s="238"/>
-      <c r="G47" s="238"/>
-      <c r="H47" s="238"/>
-      <c r="I47" s="238"/>
-      <c r="J47" s="238"/>
-      <c r="K47" s="238"/>
-      <c r="L47" s="238"/>
-      <c r="M47" s="238"/>
-      <c r="N47" s="238"/>
-      <c r="O47" s="238"/>
-      <c r="P47" s="238"/>
-    </row>
-    <row r="48" spans="1:17" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A48" s="237" t="s">
+      <c r="B47" s="214"/>
+      <c r="C47" s="214"/>
+      <c r="D47" s="214"/>
+      <c r="E47" s="214"/>
+      <c r="F47" s="214"/>
+      <c r="G47" s="214"/>
+      <c r="H47" s="214"/>
+      <c r="I47" s="214"/>
+      <c r="J47" s="214"/>
+      <c r="K47" s="214"/>
+      <c r="L47" s="214"/>
+      <c r="M47" s="214"/>
+      <c r="N47" s="214"/>
+      <c r="O47" s="214"/>
+      <c r="P47" s="214"/>
+    </row>
+    <row r="48" spans="1:17" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A48" s="215" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="49" spans="1:1" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A49" s="237" t="s">
+    <row r="49" spans="1:1" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A49" s="215" t="s">
         <v>584</v>
       </c>
     </row>
@@ -25552,101 +25596,172 @@
         <v>586</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A51" s="238" t="s">
+    <row r="51" spans="1:1" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A51" s="214" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="52" spans="1:1" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A52" s="238" t="s">
+    <row r="52" spans="1:1" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A52" s="214" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A53" s="238" t="s">
+    <row r="53" spans="1:1" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A53" s="214" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="54" spans="1:1" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A54" s="238" t="s">
+    <row r="54" spans="1:1" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A54" s="214" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="55" spans="1:1" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A55" s="238" t="s">
+    <row r="55" spans="1:1" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A55" s="214" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A56" s="238" t="s">
+    <row r="56" spans="1:1" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A56" s="214" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A57" s="238" t="s">
+    <row r="57" spans="1:1" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A57" s="214" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A58" s="238" t="s">
+    <row r="58" spans="1:1" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A58" s="214" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A59" s="237" t="s">
+    <row r="59" spans="1:1" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A59" s="215" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="60" spans="1:1" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A60" s="238" t="s">
+    <row r="60" spans="1:1" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A60" s="214" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="61" spans="1:1" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A61" s="238" t="s">
+    <row r="61" spans="1:1" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A61" s="214" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="62" spans="1:1" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A62" s="238" t="s">
+    <row r="62" spans="1:1" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A62" s="214" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="63" spans="1:1" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A63" s="238" t="s">
+    <row r="63" spans="1:1" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A63" s="214" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="64" spans="1:1" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A64" s="238" t="s">
+    <row r="64" spans="1:1" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A64" s="214" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="65" spans="1:1" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A65" s="238" t="s">
+    <row r="65" spans="1:1" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A65" s="214" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="66" spans="1:1" s="238" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A66" s="237" t="s">
+    <row r="66" spans="1:1" s="214" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A66" s="215" t="s">
         <v>593</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="A64:XFD64"/>
-    <mergeCell ref="A65:XFD65"/>
-    <mergeCell ref="A66:XFD66"/>
-    <mergeCell ref="A59:XFD59"/>
-    <mergeCell ref="A60:XFD60"/>
-    <mergeCell ref="A61:XFD61"/>
-    <mergeCell ref="A62:XFD62"/>
-    <mergeCell ref="A63:XFD63"/>
-    <mergeCell ref="A54:XFD54"/>
-    <mergeCell ref="A55:XFD55"/>
-    <mergeCell ref="A56:XFD56"/>
-    <mergeCell ref="A57:XFD57"/>
-    <mergeCell ref="A58:XFD58"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="L25:P26"/>
+    <mergeCell ref="H25:K26"/>
+    <mergeCell ref="E25:G26"/>
+    <mergeCell ref="A25:C30"/>
+    <mergeCell ref="L31:N34"/>
+    <mergeCell ref="O31:P34"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="H27:J28"/>
+    <mergeCell ref="L27:N28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="H3:H14"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="B3:C6"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O27:P28"/>
+    <mergeCell ref="Q26:Q42"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="A48:XFD48"/>
     <mergeCell ref="A49:XFD49"/>
     <mergeCell ref="A51:XFD51"/>
@@ -25671,90 +25786,19 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="H3:H14"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="B3:C6"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O27:P28"/>
-    <mergeCell ref="Q26:Q42"/>
-    <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L27:N28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="L25:P26"/>
-    <mergeCell ref="H25:K26"/>
-    <mergeCell ref="E25:G26"/>
-    <mergeCell ref="A25:C30"/>
-    <mergeCell ref="L31:N34"/>
-    <mergeCell ref="O31:P34"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="H27:J28"/>
+    <mergeCell ref="A64:XFD64"/>
+    <mergeCell ref="A65:XFD65"/>
+    <mergeCell ref="A66:XFD66"/>
+    <mergeCell ref="A59:XFD59"/>
+    <mergeCell ref="A60:XFD60"/>
+    <mergeCell ref="A61:XFD61"/>
+    <mergeCell ref="A62:XFD62"/>
+    <mergeCell ref="A63:XFD63"/>
+    <mergeCell ref="A54:XFD54"/>
+    <mergeCell ref="A55:XFD55"/>
+    <mergeCell ref="A56:XFD56"/>
+    <mergeCell ref="A57:XFD57"/>
+    <mergeCell ref="A58:XFD58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25770,16 +25814,16 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="35" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="68.08984375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="68.125" style="35" customWidth="1"/>
     <col min="4" max="4" width="11" style="35" customWidth="1"/>
-    <col min="5" max="5" width="23.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="46.90625" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="10.90625" style="35"/>
+    <col min="5" max="5" width="23.625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="35" customWidth="1"/>
+    <col min="7" max="7" width="46.875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" s="61" customFormat="1" ht="29.1" customHeight="1">
@@ -25788,7 +25832,7 @@
       </c>
       <c r="B2" s="60"/>
     </row>
-    <row r="3" spans="1:7" ht="45.9" customHeight="1">
+    <row r="3" spans="1:7" ht="45.95" customHeight="1">
       <c r="A3" s="62" t="s">
         <v>374</v>
       </c>
@@ -25857,17 +25901,17 @@
         <v>611</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="63.6">
+    <row r="6" spans="1:7" ht="63">
       <c r="A6" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="B6" s="249" t="s">
+      <c r="B6" s="241" t="s">
         <v>601</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>603</v>
       </c>
-      <c r="D6" s="251" t="s">
+      <c r="D6" s="243" t="s">
         <v>613</v>
       </c>
       <c r="E6" s="22" t="s">
@@ -25878,15 +25922,15 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="62.4">
+    <row r="7" spans="1:7" ht="63">
       <c r="A7" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="B7" s="250"/>
+      <c r="B7" s="242"/>
       <c r="C7" s="65" t="s">
         <v>612</v>
       </c>
-      <c r="D7" s="252"/>
+      <c r="D7" s="244"/>
       <c r="E7" s="22"/>
       <c r="F7" s="86" t="s">
         <v>383</v>
@@ -25897,15 +25941,15 @@
       <c r="A8" s="36"/>
     </row>
     <row r="9" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A9" s="208" t="s">
+      <c r="A9" s="197" t="s">
         <v>618</v>
       </c>
-      <c r="B9" s="208"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="208"/>
-    </row>
-    <row r="10" spans="1:7" ht="24.9" customHeight="1">
+      <c r="B9" s="197"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="197"/>
+    </row>
+    <row r="10" spans="1:7" ht="24.95" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>384</v>
       </c>
@@ -25916,50 +25960,50 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:7" s="66" customFormat="1" ht="84.9" customHeight="1">
+    <row r="11" spans="1:7" s="66" customFormat="1" ht="84.95" customHeight="1">
       <c r="A11" s="99" t="s">
         <v>385</v>
       </c>
-      <c r="B11" s="243" t="s">
+      <c r="B11" s="245" t="s">
         <v>616</v>
       </c>
-      <c r="C11" s="243"/>
-      <c r="D11" s="243"/>
-      <c r="E11" s="243"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="245"/>
       <c r="F11" s="44"/>
     </row>
     <row r="12" spans="1:7" s="36" customFormat="1" ht="180.75" customHeight="1">
       <c r="A12" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="B12" s="253" t="s">
+      <c r="B12" s="246" t="s">
         <v>681</v>
       </c>
-      <c r="C12" s="254"/>
-      <c r="D12" s="254"/>
-      <c r="E12" s="254"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="247"/>
     </row>
     <row r="13" spans="1:7" s="36" customFormat="1" ht="116.1" customHeight="1">
       <c r="A13" s="99" t="s">
         <v>614</v>
       </c>
-      <c r="B13" s="190" t="s">
+      <c r="B13" s="208" t="s">
         <v>682</v>
       </c>
-      <c r="C13" s="190"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="190"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="208"/>
     </row>
     <row r="14" spans="1:7" s="36" customFormat="1" ht="72" customHeight="1">
       <c r="A14" s="68" t="s">
         <v>386</v>
       </c>
-      <c r="B14" s="243" t="s">
+      <c r="B14" s="245" t="s">
         <v>617</v>
       </c>
-      <c r="C14" s="243"/>
-      <c r="D14" s="243"/>
-      <c r="E14" s="243"/>
+      <c r="C14" s="245"/>
+      <c r="D14" s="245"/>
+      <c r="E14" s="245"/>
     </row>
     <row r="15" spans="1:7" s="36" customFormat="1" ht="23.1" customHeight="1">
       <c r="A15" s="70"/>
@@ -25968,89 +26012,89 @@
       <c r="D15" s="71"/>
       <c r="E15" s="71"/>
     </row>
-    <row r="16" spans="1:7" s="36" customFormat="1" ht="33.9" customHeight="1">
-      <c r="A16" s="208" t="s">
+    <row r="16" spans="1:7" s="36" customFormat="1" ht="33.950000000000003" customHeight="1">
+      <c r="A16" s="197" t="s">
         <v>619</v>
       </c>
-      <c r="B16" s="208"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
     </row>
     <row r="17" spans="1:5" ht="123" customHeight="1">
       <c r="A17" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="B17" s="243" t="s">
+      <c r="B17" s="245" t="s">
         <v>620</v>
       </c>
-      <c r="C17" s="243"/>
-      <c r="D17" s="243"/>
-      <c r="E17" s="243"/>
-    </row>
-    <row r="18" spans="1:5" s="44" customFormat="1" ht="96.9" customHeight="1">
+      <c r="C17" s="245"/>
+      <c r="D17" s="245"/>
+      <c r="E17" s="245"/>
+    </row>
+    <row r="18" spans="1:5" s="44" customFormat="1" ht="96.95" customHeight="1">
       <c r="A18" s="69" t="s">
         <v>389</v>
       </c>
-      <c r="B18" s="243" t="s">
+      <c r="B18" s="245" t="s">
         <v>621</v>
       </c>
-      <c r="C18" s="243"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="243"/>
-    </row>
-    <row r="19" spans="1:5" s="44" customFormat="1" ht="63.9" customHeight="1">
+      <c r="C18" s="245"/>
+      <c r="D18" s="245"/>
+      <c r="E18" s="245"/>
+    </row>
+    <row r="19" spans="1:5" s="44" customFormat="1" ht="63.95" customHeight="1">
       <c r="A19" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="B19" s="244" t="s">
+      <c r="B19" s="250" t="s">
         <v>391</v>
       </c>
-      <c r="C19" s="244"/>
-      <c r="D19" s="244"/>
-      <c r="E19" s="244"/>
+      <c r="C19" s="250"/>
+      <c r="D19" s="250"/>
+      <c r="E19" s="250"/>
     </row>
     <row r="21" spans="1:5" ht="36" customHeight="1">
-      <c r="A21" s="208" t="s">
+      <c r="A21" s="197" t="s">
         <v>393</v>
       </c>
-      <c r="B21" s="208"/>
-      <c r="C21" s="208"/>
-      <c r="D21" s="208"/>
-      <c r="E21" s="208"/>
+      <c r="B21" s="197"/>
+      <c r="C21" s="197"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="197"/>
     </row>
     <row r="22" spans="1:5" s="36" customFormat="1" ht="157.5" customHeight="1">
       <c r="A22" s="42" t="s">
         <v>622</v>
       </c>
-      <c r="B22" s="245" t="s">
+      <c r="B22" s="251" t="s">
         <v>624</v>
       </c>
-      <c r="C22" s="245"/>
-      <c r="D22" s="245"/>
-      <c r="E22" s="245"/>
+      <c r="C22" s="251"/>
+      <c r="D22" s="251"/>
+      <c r="E22" s="251"/>
     </row>
     <row r="23" spans="1:5" s="102" customFormat="1" ht="98.25" customHeight="1">
       <c r="A23" s="101" t="s">
         <v>392</v>
       </c>
-      <c r="B23" s="246" t="s">
+      <c r="B23" s="252" t="s">
         <v>623</v>
       </c>
-      <c r="C23" s="246"/>
-      <c r="D23" s="246"/>
-      <c r="E23" s="246"/>
-    </row>
-    <row r="25" spans="1:5" ht="25.2">
-      <c r="A25" s="208" t="s">
+      <c r="C23" s="252"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="252"/>
+    </row>
+    <row r="25" spans="1:5" ht="25.5">
+      <c r="A25" s="197" t="s">
         <v>394</v>
       </c>
-      <c r="B25" s="208"/>
-      <c r="C25" s="208"/>
-      <c r="D25" s="208"/>
-      <c r="E25" s="208"/>
-    </row>
-    <row r="26" spans="1:5" ht="24.9" customHeight="1">
+      <c r="B25" s="197"/>
+      <c r="C25" s="197"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="197"/>
+    </row>
+    <row r="26" spans="1:5" ht="24.95" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="22" t="s">
         <v>396</v>
@@ -26081,23 +26125,23 @@
         <v>626</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="63.9" customHeight="1">
+    <row r="29" spans="1:5" ht="63.95" customHeight="1">
       <c r="A29" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="B29" s="247" t="s">
+      <c r="B29" s="253" t="s">
         <v>627</v>
       </c>
-      <c r="C29" s="248"/>
+      <c r="C29" s="254"/>
     </row>
     <row r="30" spans="1:5" ht="48" customHeight="1">
       <c r="A30" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="B30" s="241" t="s">
+      <c r="B30" s="248" t="s">
         <v>648</v>
       </c>
-      <c r="C30" s="242"/>
+      <c r="C30" s="249"/>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" s="35">
@@ -26107,11 +26151,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A9:E9"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
@@ -26124,6 +26163,11 @@
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26140,67 +26184,67 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" style="35"/>
-    <col min="3" max="3" width="20.90625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="28.6328125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="28.08984375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="25.36328125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="23.36328125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="30.6328125" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="10.90625" style="35"/>
+    <col min="1" max="1" width="21.625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="35"/>
+    <col min="3" max="3" width="20.875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="28.125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="25.375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="23.375" style="35" customWidth="1"/>
+    <col min="8" max="8" width="30.625" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="35"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="38.1" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="263" t="s">
         <v>421</v>
       </c>
-      <c r="B3" s="255"/>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="256" t="s">
+      <c r="A5" s="261" t="s">
         <v>422</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="256"/>
-      <c r="D5" s="256"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
-    </row>
-    <row r="6" spans="1:10" ht="24.9" customHeight="1">
-      <c r="A6" s="178" t="s">
+      <c r="B5" s="261"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
+    </row>
+    <row r="6" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A6" s="181" t="s">
         <v>423</v>
       </c>
-      <c r="B6" s="257" t="s">
+      <c r="B6" s="256" t="s">
         <v>424</v>
       </c>
-      <c r="C6" s="257" t="s">
+      <c r="C6" s="256" t="s">
         <v>425</v>
       </c>
-      <c r="D6" s="257" t="s">
+      <c r="D6" s="256" t="s">
         <v>426</v>
       </c>
-      <c r="E6" s="257"/>
-      <c r="F6" s="257"/>
-      <c r="G6" s="257"/>
-      <c r="H6" s="257" t="s">
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
+      <c r="G6" s="256"/>
+      <c r="H6" s="256" t="s">
         <v>339</v>
       </c>
-      <c r="I6" s="258"/>
-      <c r="J6" s="256"/>
-    </row>
-    <row r="7" spans="1:10" ht="31.2">
-      <c r="A7" s="178"/>
-      <c r="B7" s="257"/>
-      <c r="C7" s="257"/>
+      <c r="I6" s="259"/>
+      <c r="J6" s="261"/>
+    </row>
+    <row r="7" spans="1:10" ht="31.5">
+      <c r="A7" s="181"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="256"/>
       <c r="D7" s="42" t="s">
         <v>427</v>
       </c>
@@ -26213,12 +26257,12 @@
       <c r="G7" s="42" t="s">
         <v>430</v>
       </c>
-      <c r="H7" s="257"/>
-      <c r="I7" s="259"/>
-      <c r="J7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="260"/>
+      <c r="J7" s="261"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="257" t="s">
+      <c r="A8" s="256" t="s">
         <v>431</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -26235,13 +26279,13 @@
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="243" t="s">
+      <c r="H8" s="245" t="s">
         <v>437</v>
       </c>
-      <c r="I8" s="261"/>
+      <c r="I8" s="255"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="257"/>
+      <c r="A9" s="256"/>
       <c r="B9" s="42" t="s">
         <v>197</v>
       </c>
@@ -26256,11 +26300,11 @@
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="243"/>
-      <c r="I9" s="261"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="255"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="257" t="s">
+      <c r="A10" s="256" t="s">
         <v>433</v>
       </c>
       <c r="B10" s="42" t="s">
@@ -26279,11 +26323,11 @@
         <v>2000</v>
       </c>
       <c r="G10" s="42"/>
-      <c r="H10" s="243"/>
-      <c r="I10" s="261"/>
+      <c r="H10" s="245"/>
+      <c r="I10" s="255"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="257"/>
+      <c r="A11" s="256"/>
       <c r="B11" s="42" t="s">
         <v>197</v>
       </c>
@@ -26300,11 +26344,11 @@
         <v>1500</v>
       </c>
       <c r="G11" s="42"/>
-      <c r="H11" s="243"/>
-      <c r="I11" s="261"/>
+      <c r="H11" s="245"/>
+      <c r="I11" s="255"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="256" t="s">
         <v>233</v>
       </c>
       <c r="B12" s="42" t="s">
@@ -26322,14 +26366,14 @@
       <c r="F12" s="42">
         <v>3000</v>
       </c>
-      <c r="G12" s="251">
+      <c r="G12" s="243">
         <v>500</v>
       </c>
-      <c r="H12" s="243"/>
-      <c r="I12" s="261"/>
+      <c r="H12" s="245"/>
+      <c r="I12" s="255"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="257"/>
+      <c r="A13" s="256"/>
       <c r="B13" s="42" t="s">
         <v>197</v>
       </c>
@@ -26345,12 +26389,12 @@
       <c r="F13" s="42">
         <v>2000</v>
       </c>
-      <c r="G13" s="252"/>
-      <c r="H13" s="243"/>
-      <c r="I13" s="261"/>
+      <c r="G13" s="244"/>
+      <c r="H13" s="245"/>
+      <c r="I13" s="255"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="257"/>
+      <c r="A14" s="256"/>
       <c r="B14" s="42" t="s">
         <v>189</v>
       </c>
@@ -26365,11 +26409,11 @@
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="243"/>
-      <c r="I14" s="261"/>
+      <c r="H14" s="245"/>
+      <c r="I14" s="255"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="257" t="s">
+      <c r="A15" s="256" t="s">
         <v>240</v>
       </c>
       <c r="B15" s="42" t="s">
@@ -26390,11 +26434,11 @@
       <c r="G15" s="42">
         <v>1000</v>
       </c>
-      <c r="H15" s="243"/>
-      <c r="I15" s="261"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="255"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="257"/>
+      <c r="A16" s="256"/>
       <c r="B16" s="42" t="s">
         <v>189</v>
       </c>
@@ -26409,11 +26453,11 @@
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
-      <c r="H16" s="243"/>
-      <c r="I16" s="261"/>
+      <c r="H16" s="245"/>
+      <c r="I16" s="255"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="257"/>
+      <c r="A17" s="256"/>
       <c r="B17" s="42" t="s">
         <v>192</v>
       </c>
@@ -26426,11 +26470,11 @@
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
-      <c r="H17" s="243"/>
-      <c r="I17" s="261"/>
+      <c r="H17" s="245"/>
+      <c r="I17" s="255"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="257" t="s">
+      <c r="A18" s="256" t="s">
         <v>241</v>
       </c>
       <c r="B18" s="42" t="s">
@@ -26451,11 +26495,11 @@
       <c r="G18" s="42">
         <v>1000</v>
       </c>
-      <c r="H18" s="243"/>
-      <c r="I18" s="261"/>
+      <c r="H18" s="245"/>
+      <c r="I18" s="255"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="257"/>
+      <c r="A19" s="256"/>
       <c r="B19" s="42" t="s">
         <v>189</v>
       </c>
@@ -26470,11 +26514,11 @@
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
-      <c r="H19" s="243"/>
-      <c r="I19" s="261"/>
+      <c r="H19" s="245"/>
+      <c r="I19" s="255"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="257"/>
+      <c r="A20" s="256"/>
       <c r="B20" s="42" t="s">
         <v>192</v>
       </c>
@@ -26487,16 +26531,16 @@
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
-      <c r="H20" s="243"/>
-      <c r="I20" s="261"/>
-    </row>
-    <row r="23" spans="1:9" ht="25.2">
-      <c r="A23" s="262" t="s">
+      <c r="H20" s="245"/>
+      <c r="I20" s="255"/>
+    </row>
+    <row r="23" spans="1:9" ht="25.5">
+      <c r="A23" s="257" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="262"/>
-      <c r="C23" s="262"/>
-      <c r="D23" s="263"/>
+      <c r="B23" s="257"/>
+      <c r="C23" s="257"/>
+      <c r="D23" s="258"/>
     </row>
     <row r="24" spans="1:9" s="36" customFormat="1" ht="51" customHeight="1">
       <c r="A24" s="54" t="s">
@@ -26534,7 +26578,7 @@
       <c r="D25" s="42" t="s">
         <v>447</v>
       </c>
-      <c r="E25" s="260" t="s">
+      <c r="E25" s="262" t="s">
         <v>628</v>
       </c>
       <c r="F25" s="103" t="s">
@@ -26546,7 +26590,7 @@
       <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:9" s="36" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A26" s="257" t="s">
+      <c r="A26" s="256" t="s">
         <v>442</v>
       </c>
       <c r="B26" s="42" t="s">
@@ -26556,7 +26600,7 @@
         <v>2500</v>
       </c>
       <c r="D26" s="42"/>
-      <c r="E26" s="260"/>
+      <c r="E26" s="262"/>
       <c r="F26" s="105" t="s">
         <v>631</v>
       </c>
@@ -26566,7 +26610,7 @@
       <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:9" s="36" customFormat="1">
-      <c r="A27" s="257"/>
+      <c r="A27" s="256"/>
       <c r="B27" s="42" t="s">
         <v>189</v>
       </c>
@@ -26574,7 +26618,7 @@
         <v>1200</v>
       </c>
       <c r="D27" s="42"/>
-      <c r="E27" s="260"/>
+      <c r="E27" s="262"/>
       <c r="F27" s="105" t="s">
         <v>632</v>
       </c>
@@ -26582,7 +26626,7 @@
       <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:9" s="36" customFormat="1">
-      <c r="A28" s="257"/>
+      <c r="A28" s="256"/>
       <c r="B28" s="42" t="s">
         <v>192</v>
       </c>
@@ -26590,14 +26634,14 @@
         <v>600</v>
       </c>
       <c r="D28" s="42"/>
-      <c r="E28" s="260"/>
+      <c r="E28" s="262"/>
       <c r="F28" s="105" t="s">
         <v>633</v>
       </c>
       <c r="G28" s="88"/>
       <c r="H28" s="45"/>
     </row>
-    <row r="29" spans="1:9" s="36" customFormat="1" ht="31.2">
+    <row r="29" spans="1:9" s="36" customFormat="1" ht="31.5">
       <c r="A29" s="42" t="s">
         <v>443</v>
       </c>
@@ -26610,7 +26654,7 @@
       <c r="D29" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="E29" s="260"/>
+      <c r="E29" s="262"/>
       <c r="F29" s="105" t="s">
         <v>634</v>
       </c>
@@ -26625,31 +26669,42 @@
       </c>
     </row>
     <row r="34" spans="1:4" s="36" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A34" s="237" t="s">
+      <c r="A34" s="215" t="s">
         <v>640</v>
       </c>
-      <c r="B34" s="237"/>
-      <c r="C34" s="237"/>
-      <c r="D34" s="237"/>
+      <c r="B34" s="215"/>
+      <c r="C34" s="215"/>
+      <c r="D34" s="215"/>
     </row>
     <row r="35" spans="1:4" s="36" customFormat="1" ht="21" customHeight="1">
-      <c r="A35" s="237" t="s">
+      <c r="A35" s="215" t="s">
         <v>639</v>
       </c>
-      <c r="B35" s="237"/>
-      <c r="C35" s="237"/>
-      <c r="D35" s="237"/>
+      <c r="B35" s="215"/>
+      <c r="C35" s="215"/>
+      <c r="D35" s="215"/>
     </row>
     <row r="36" spans="1:4" ht="31.5" customHeight="1">
-      <c r="A36" s="237" t="s">
+      <c r="A36" s="215" t="s">
         <v>641</v>
       </c>
-      <c r="B36" s="237"/>
-      <c r="C36" s="237"/>
-      <c r="D36" s="237"/>
+      <c r="B36" s="215"/>
+      <c r="C36" s="215"/>
+      <c r="D36" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H20"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
@@ -26662,17 +26717,6 @@
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H20"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26684,46 +26728,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="5" width="9.90625" customWidth="1"/>
-    <col min="6" max="8" width="10.90625" customWidth="1"/>
-    <col min="9" max="9" width="31.90625" customWidth="1"/>
+    <col min="3" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="25.2">
-      <c r="B3" s="181" t="s">
+    <row r="3" spans="2:9" ht="25.5">
+      <c r="B3" s="169" t="s">
         <v>402</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-    </row>
-    <row r="4" spans="2:9" s="1" customFormat="1" ht="63.9" customHeight="1">
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+    </row>
+    <row r="4" spans="2:9" s="1" customFormat="1" ht="63.95" customHeight="1">
       <c r="B4" s="3"/>
-      <c r="C4" s="257" t="s">
+      <c r="C4" s="256" t="s">
         <v>403</v>
       </c>
-      <c r="D4" s="257"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="247" t="s">
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="253" t="s">
         <v>406</v>
       </c>
-      <c r="G4" s="247"/>
-      <c r="H4" s="247"/>
+      <c r="G4" s="253"/>
+      <c r="H4" s="253"/>
       <c r="I4" s="85" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="38" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="5" spans="2:9" s="38" customFormat="1" ht="18.95" customHeight="1">
       <c r="B5" s="39"/>
       <c r="C5" s="187" t="s">
         <v>404</v>
@@ -26739,7 +26783,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="38" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="6" spans="2:9" s="38" customFormat="1" ht="18.95" customHeight="1">
       <c r="B6" s="39"/>
       <c r="C6" s="39" t="s">
         <v>405</v>
@@ -26761,7 +26805,7 @@
       </c>
       <c r="I6" s="264"/>
     </row>
-    <row r="7" spans="2:9" ht="31.2">
+    <row r="7" spans="2:9" ht="31.5">
       <c r="B7" s="42" t="s">
         <v>407</v>
       </c>
@@ -26975,13 +27019,13 @@
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
     </row>
-    <row r="19" spans="2:8" ht="25.2">
-      <c r="B19" s="181" t="s">
+    <row r="19" spans="2:8" ht="25.5">
+      <c r="B19" s="169" t="s">
         <v>417</v>
       </c>
-      <c r="C19" s="181"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="169"/>
       <c r="F19" s="72"/>
       <c r="G19" s="72"/>
       <c r="H19" s="72"/>
@@ -26996,15 +27040,15 @@
       <c r="H20" s="38"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="238" t="s">
+      <c r="B21" s="214" t="s">
         <v>418</v>
       </c>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
-      <c r="E21" s="238"/>
-      <c r="F21" s="238"/>
-      <c r="G21" s="238"/>
-      <c r="H21" s="238"/>
+      <c r="C21" s="214"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="214"/>
     </row>
     <row r="22" spans="2:8" ht="36.75" customHeight="1">
       <c r="B22" s="38"/>
@@ -27015,13 +27059,13 @@
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
     </row>
-    <row r="23" spans="2:8" ht="15.9" customHeight="1">
-      <c r="B23" s="234"/>
-      <c r="C23" s="247" t="s">
+    <row r="23" spans="2:8" ht="15.95" customHeight="1">
+      <c r="B23" s="221"/>
+      <c r="C23" s="253" t="s">
         <v>406</v>
       </c>
-      <c r="D23" s="247"/>
-      <c r="E23" s="247"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="253"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="265"/>
@@ -27032,7 +27076,7 @@
       <c r="E24" s="187"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="235"/>
+      <c r="B25" s="222"/>
       <c r="C25" s="39" t="s">
         <v>405</v>
       </c>
@@ -27043,7 +27087,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="31.2">
+    <row r="26" spans="2:8" ht="31.5">
       <c r="B26" s="108" t="s">
         <v>407</v>
       </c>
@@ -27159,29 +27203,29 @@
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
     </row>
-    <row r="39" spans="2:8" ht="25.2">
-      <c r="B39" s="181" t="s">
+    <row r="39" spans="2:8" ht="25.5">
+      <c r="B39" s="169" t="s">
         <v>419</v>
       </c>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
-      <c r="E39" s="181"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
+      <c r="E39" s="169"/>
       <c r="F39" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="234"/>
-      <c r="C41" s="257" t="s">
+      <c r="B41" s="221"/>
+      <c r="C41" s="256" t="s">
         <v>403</v>
       </c>
-      <c r="D41" s="257"/>
-      <c r="E41" s="257"/>
-      <c r="F41" s="257" t="s">
+      <c r="D41" s="256"/>
+      <c r="E41" s="256"/>
+      <c r="F41" s="256" t="s">
         <v>406</v>
       </c>
-      <c r="G41" s="257"/>
-      <c r="H41" s="257"/>
+      <c r="G41" s="256"/>
+      <c r="H41" s="256"/>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="265"/>
@@ -27197,7 +27241,7 @@
       <c r="H42" s="187"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="235"/>
+      <c r="B43" s="222"/>
       <c r="C43" s="39" t="s">
         <v>405</v>
       </c>
@@ -27257,6 +27301,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B3:H3"/>
     <mergeCell ref="I5:I16"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="C41:E41"/>
@@ -27269,11 +27318,6 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
